--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -530,7 +530,7 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D3" t="n">
-        <v>2.698333333333335</v>
+        <v>-3.602499999999997</v>
       </c>
       <c r="E3" t="n">
         <v>0.3157952436194896</v>
@@ -565,7 +565,7 @@
         <v>-1.248333333333335</v>
       </c>
       <c r="D4" t="n">
-        <v>1.948333333333335</v>
+        <v>-3.427499999999998</v>
       </c>
       <c r="E4" t="n">
         <v>0.3742952436194896</v>
@@ -600,7 +600,7 @@
         <v>3.401666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.401666666666666</v>
+        <v>-11.1025</v>
       </c>
       <c r="E5" t="n">
         <v>0.3157952436194896</v>
@@ -740,7 +740,7 @@
         <v>4.101666666666665</v>
       </c>
       <c r="D9" t="n">
-        <v>12.89833333333334</v>
+        <v>4.847500000000004</v>
       </c>
       <c r="E9" t="n">
         <v>0.1948616908572694</v>
@@ -813,7 +813,7 @@
         <v>19.67416666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.09889894984754349</v>
       </c>
       <c r="F11" t="n">
         <v>19.8</v>
@@ -880,7 +880,7 @@
         <v>1.251666666666665</v>
       </c>
       <c r="D13" t="n">
-        <v>16.34833333333334</v>
+        <v>9.722500000000004</v>
       </c>
       <c r="E13" t="n">
         <v>0.2292730773269957</v>
@@ -951,7 +951,7 @@
         <v>19.49916666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.06541845798157234</v>
       </c>
       <c r="F15" t="n">
         <v>20.3</v>
@@ -986,7 +986,7 @@
         <v>19.84916666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.3740484687784737</v>
       </c>
       <c r="F16" t="n">
         <v>19.8</v>
@@ -1019,7 +1019,7 @@
         <v>21.02458333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.008942013445720754</v>
       </c>
       <c r="F17" t="n">
         <v>19.5</v>
@@ -1054,7 +1054,7 @@
         <v>19.74916666666666</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>19.8</v>
@@ -1259,7 +1259,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D24" t="n">
-        <v>15.39833333333334</v>
+        <v>10.9475</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>15.48708333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>14.925</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>17.6</v>
+        <v>11.6</v>
       </c>
       <c r="E31" t="n">
         <v>0.3180873634202655</v>
@@ -1533,7 +1533,7 @@
         <v>1.901666666666666</v>
       </c>
       <c r="D32" t="n">
-        <v>7.698333333333334</v>
+        <v>0.7475000000000005</v>
       </c>
       <c r="E32" t="n">
         <v>0.1520953721898909</v>
@@ -1568,7 +1568,7 @@
         <v>2.401666666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>13.49833333333333</v>
+        <v>6.297500000000001</v>
       </c>
       <c r="E33" t="n">
         <v>0.1402127769751151</v>
@@ -1669,7 +1669,7 @@
         <v>6.101666666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>7.198333333333334</v>
+        <v>-1.852499999999999</v>
       </c>
       <c r="E36" t="n">
         <v>0.04475048307924606</v>
@@ -1704,7 +1704,7 @@
         <v>0.7516666666666652</v>
       </c>
       <c r="D37" t="n">
-        <v>13.14833333333334</v>
+        <v>6.772500000000003</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>14.77458333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.1514763699956903</v>
       </c>
       <c r="F38" t="n">
         <v>15.8</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>16.7</v>
+        <v>10.7</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.1953728670674525</v>
       </c>
       <c r="F39" t="n">
         <v>16.7</v>
@@ -1807,10 +1807,10 @@
         <v>-3.898333333333335</v>
       </c>
       <c r="D40" t="n">
-        <v>20.49833333333333</v>
+        <v>16.44750000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.125123675198358</v>
       </c>
       <c r="F40" t="n">
         <v>16.6</v>
@@ -1880,7 +1880,7 @@
         <v>14.72458333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.279079445378425</v>
       </c>
       <c r="F42" t="n">
         <v>14.7</v>
@@ -1910,10 +1910,10 @@
         <v>-1.248333333333335</v>
       </c>
       <c r="D43" t="n">
-        <v>16.54833333333334</v>
+        <v>11.1725</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0.05636689978396123</v>
       </c>
       <c r="F43" t="n">
         <v>15.3</v>
@@ -1981,7 +1981,7 @@
         <v>13.44916666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.06997765520350614</v>
       </c>
       <c r="F45" t="n">
         <v>16.5</v>
@@ -2013,7 +2013,7 @@
         <v>1.101666666666665</v>
       </c>
       <c r="D46" t="n">
-        <v>15.09833333333333</v>
+        <v>8.547500000000003</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>-3.398333333333335</v>
       </c>
       <c r="D50" t="n">
-        <v>18.29833333333334</v>
+        <v>13.9975</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>10.04958333333333</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0.09410010774713104</v>
       </c>
       <c r="F51" t="n">
         <v>10.65</v>
@@ -2217,7 +2217,7 @@
         <v>6.101666666666667</v>
       </c>
       <c r="D52" t="n">
-        <v>9.998333333333335</v>
+        <v>0.9475000000000016</v>
       </c>
       <c r="E52" t="n">
         <v>0.3517952436194897</v>
@@ -2288,7 +2288,7 @@
         <v>13.19958333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>13.1</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
         <v>0.3157277909484574</v>
@@ -2460,7 +2460,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D59" t="n">
-        <v>11.09833333333333</v>
+        <v>5.047500000000002</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -2530,7 +2530,7 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D61" t="n">
-        <v>12.89833333333334</v>
+        <v>8.097500000000004</v>
       </c>
       <c r="E61" t="n">
         <v>0.1861278874112874</v>
@@ -2598,7 +2598,7 @@
         <v>-2.248333333333335</v>
       </c>
       <c r="D63" t="n">
-        <v>17.44833333333333</v>
+        <v>12.5725</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>-5.398333333333335</v>
       </c>
       <c r="D64" t="n">
-        <v>19.59833333333334</v>
+        <v>16.2975</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>3.401666666666666</v>
       </c>
       <c r="D70" t="n">
-        <v>11.29833333333333</v>
+        <v>3.5975</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>2.251666666666665</v>
       </c>
       <c r="D71" t="n">
-        <v>6.448333333333334</v>
+        <v>-0.6774999999999984</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>-0.3983333333333352</v>
       </c>
       <c r="D72" t="n">
-        <v>14.59833333333333</v>
+        <v>8.797500000000003</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         <v>-0.09833333333333449</v>
       </c>
       <c r="D78" t="n">
-        <v>14.49833333333333</v>
+        <v>8.547500000000003</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0.2856855349666269</v>
       </c>
       <c r="F78" t="n">
         <v>14.4</v>
@@ -3214,7 +3214,7 @@
         <v>1.601666666666665</v>
       </c>
       <c r="D81" t="n">
-        <v>11.49833333333333</v>
+        <v>4.697500000000003</v>
       </c>
       <c r="E81" t="n">
         <v>0.07838184655059607</v>
@@ -3318,7 +3318,7 @@
         <v>11.57458333333333</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>10.8</v>
@@ -3419,7 +3419,7 @@
         <v>12.91208333333333</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>13.1</v>
@@ -3484,7 +3484,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D89" t="n">
-        <v>16.19833333333333</v>
+        <v>11.7475</v>
       </c>
       <c r="E89" t="n">
         <v>0.06089266452621327</v>
@@ -3587,7 +3587,7 @@
         <v>0.2516666666666652</v>
       </c>
       <c r="D92" t="n">
-        <v>10.79833333333334</v>
+        <v>4.672500000000003</v>
       </c>
       <c r="E92" t="n">
         <v>0.0984565639489105</v>
@@ -3625,7 +3625,7 @@
         <v>11.4</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>0.2223812302244812</v>
       </c>
       <c r="F93" t="n">
         <v>11.4</v>
@@ -3693,7 +3693,7 @@
         <v>12.34916666666667</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>14.05</v>
@@ -3728,7 +3728,7 @@
         <v>9.637083333333333</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.02179741449158827</v>
       </c>
       <c r="F96" t="n">
         <v>10.7</v>
@@ -3830,7 +3830,7 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D99" t="n">
-        <v>7.048333333333336</v>
+        <v>-1.077499999999997</v>
       </c>
       <c r="E99" t="n">
         <v>0.0614944478584268</v>
@@ -3865,7 +3865,7 @@
         <v>-6.098333333333334</v>
       </c>
       <c r="D100" t="n">
-        <v>18.19833333333333</v>
+        <v>15.2475</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0.2516666666666652</v>
       </c>
       <c r="D105" t="n">
-        <v>12.24833333333333</v>
+        <v>6.122500000000002</v>
       </c>
       <c r="E105" t="n">
         <v>0.08431982345497495</v>
@@ -4076,7 +4076,7 @@
         <v>12.52458333333333</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>0.1233525282060653</v>
       </c>
       <c r="F106" t="n">
         <v>11.55</v>
@@ -4216,7 +4216,7 @@
         <v>8.974583333333333</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>9</v>
@@ -4248,7 +4248,7 @@
         <v>1.601666666666665</v>
       </c>
       <c r="D111" t="n">
-        <v>9.898333333333335</v>
+        <v>3.097500000000004</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
@@ -4426,7 +4426,7 @@
         <v>12.33983333333333</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>0.02799777813028761</v>
       </c>
       <c r="F116" t="n">
         <v>12</v>
@@ -4700,7 +4700,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0.1524184840401448</v>
       </c>
       <c r="F124" t="n">
         <v>8.199999999999999</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="E132" t="n">
         <v>0.1405222788065849</v>
@@ -5045,10 +5045,10 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D134" t="n">
-        <v>9.048333333333336</v>
+        <v>2.747500000000003</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>0.02191050553982613</v>
       </c>
       <c r="F134" t="n">
         <v>9.65</v>
@@ -5081,7 +5081,7 @@
         <v>8.574833333333334</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>0.05047354752296575</v>
       </c>
       <c r="F135" t="n">
         <v>9</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>10.2</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -5217,7 +5217,7 @@
         <v>9.049166666666668</v>
       </c>
       <c r="E139" t="n">
-        <v>0.03898311134267674</v>
+        <v>0.3832952436194896</v>
       </c>
       <c r="F139" t="n">
         <v>9.850000000000001</v>
@@ -5355,7 +5355,7 @@
         <v>8.287083333333333</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>0.07571948967262432</v>
       </c>
       <c r="F143" t="n">
         <v>8.35</v>
@@ -5423,7 +5423,7 @@
         <v>9.239833333333333</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0.2415839903136136</v>
       </c>
       <c r="F145" t="n">
         <v>9</v>
@@ -5559,7 +5559,7 @@
         <v>8.774583333333334</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>0.1613558498776341</v>
       </c>
       <c r="F149" t="n">
         <v>9.800000000000001</v>
@@ -5629,7 +5629,7 @@
         <v>8.1</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>0.2112025195943451</v>
       </c>
       <c r="F151" t="n">
         <v>8.1</v>
@@ -5659,7 +5659,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D152" t="n">
-        <v>8.698333333333336</v>
+        <v>2.647500000000004</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>8.589833333333333</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0.1639635673961659</v>
       </c>
       <c r="F153" t="n">
         <v>9</v>
@@ -5732,7 +5732,7 @@
         <v>8</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0.3316501625636283</v>
       </c>
       <c r="F154" t="n">
         <v>8</v>
@@ -5802,7 +5802,7 @@
         <v>8.924583333333334</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>0.08388298520560852</v>
       </c>
       <c r="F156" t="n">
         <v>8.15</v>
@@ -6187,7 +6187,7 @@
         <v>8.339833333333333</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0.02976971108602614</v>
       </c>
       <c r="F167" t="n">
         <v>8</v>
@@ -6425,7 +6425,7 @@
         <v>0.7516666666666652</v>
       </c>
       <c r="D174" t="n">
-        <v>4.548333333333335</v>
+        <v>-1.827499999999998</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>6.389833333333334</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>0.2061761623426517</v>
       </c>
       <c r="F177" t="n">
         <v>6</v>
@@ -6603,7 +6603,7 @@
         <v>8</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>0.2631274736375208</v>
       </c>
       <c r="F179" t="n">
         <v>8</v>
@@ -6772,7 +6772,7 @@
         <v>7.839833333333334</v>
       </c>
       <c r="E184" t="n">
-        <v>0.1080308137198478</v>
+        <v>0.3832952436194896</v>
       </c>
       <c r="F184" t="n">
         <v>8</v>
@@ -6835,7 +6835,7 @@
         <v>-0.09833333333333449</v>
       </c>
       <c r="D186" t="n">
-        <v>7.098333333333334</v>
+        <v>1.147500000000002</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>-4.398333333333335</v>
       </c>
       <c r="D187" t="n">
-        <v>11.79833333333334</v>
+        <v>7.997500000000003</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -6903,10 +6903,10 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D188" t="n">
-        <v>3.648333333333335</v>
+        <v>-4.477499999999997</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>0.06002161456293105</v>
       </c>
       <c r="F188" t="n">
         <v>7.9</v>
@@ -6941,7 +6941,7 @@
         <v>4.5</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>0.1679086414046787</v>
       </c>
       <c r="F189" t="n">
         <v>4.5</v>
@@ -7074,7 +7074,7 @@
         <v>-5.398333333333335</v>
       </c>
       <c r="D193" t="n">
-        <v>12.79833333333334</v>
+        <v>9.497500000000002</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         <v>6.874833333333333</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0.2808250897337748</v>
       </c>
       <c r="F196" t="n">
         <v>7</v>
@@ -7210,7 +7210,7 @@
         <v>-3.898333333333335</v>
       </c>
       <c r="D197" t="n">
-        <v>10.19833333333334</v>
+        <v>6.147500000000004</v>
       </c>
       <c r="E197" t="n">
         <v>0.1504351088898443</v>
@@ -7418,7 +7418,7 @@
         <v>3.401666666666666</v>
       </c>
       <c r="D203" t="n">
-        <v>1.698333333333334</v>
+        <v>-6.0025</v>
       </c>
       <c r="E203" t="n">
         <v>0.04041325338604834</v>
@@ -7489,7 +7489,7 @@
         <v>5.249583333333334</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
         <v>5.15</v>
@@ -7521,7 +7521,7 @@
         <v>4.401666666666666</v>
       </c>
       <c r="D206" t="n">
-        <v>3.498333333333335</v>
+        <v>-4.702499999999999</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -7627,7 +7627,7 @@
         <v>6.939833333333334</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>0.0002038802177780838</v>
       </c>
       <c r="F209" t="n">
         <v>7</v>
@@ -7762,7 +7762,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D213" t="n">
-        <v>6.198333333333335</v>
+        <v>0.1475000000000026</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>7.909833333333333</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>0.06596902415405625</v>
       </c>
       <c r="F217" t="n">
         <v>7.6</v>
@@ -8177,7 +8177,7 @@
         <v>6.559833333333334</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>0.1192141393145386</v>
       </c>
       <c r="F225" t="n">
         <v>6.25</v>
@@ -8212,7 +8212,7 @@
         <v>6.249583333333334</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>0.03418996935320891</v>
       </c>
       <c r="F226" t="n">
         <v>5.4</v>
@@ -8247,7 +8247,7 @@
         <v>5.339833333333334</v>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>0.2556210396135074</v>
       </c>
       <c r="F227" t="n">
         <v>5.75</v>
@@ -8282,7 +8282,7 @@
         <v>6.262083333333334</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>0.008153537430463695</v>
       </c>
       <c r="F228" t="n">
         <v>5.7</v>
@@ -8317,7 +8317,7 @@
         <v>5.899583333333334</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>0.08877484592284801</v>
       </c>
       <c r="F229" t="n">
         <v>6.3</v>
@@ -8727,7 +8727,7 @@
         <v>5.724583333333333</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>0.2424161725262421</v>
       </c>
       <c r="F241" t="n">
         <v>6.199999999999999</v>
@@ -8792,7 +8792,7 @@
         <v>-6.098333333333334</v>
       </c>
       <c r="D243" t="n">
-        <v>11.39833333333333</v>
+        <v>8.447500000000002</v>
       </c>
       <c r="E243" t="n">
         <v>0.04102926704912346</v>
@@ -8898,7 +8898,7 @@
         <v>5.124583333333334</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>0.02556916367176239</v>
       </c>
       <c r="F246" t="n">
         <v>3.6</v>
@@ -8999,7 +8999,7 @@
         <v>4.374583333333334</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>0.02653729657267427</v>
       </c>
       <c r="F249" t="n">
         <v>5.9</v>
@@ -9136,7 +9136,7 @@
         <v>1.101666666666665</v>
       </c>
       <c r="D253" t="n">
-        <v>4.398333333333335</v>
+        <v>-2.152499999999997</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
@@ -9307,10 +9307,10 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D258" t="n">
-        <v>6.598333333333335</v>
+        <v>1.797500000000003</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>0.2266018749501066</v>
       </c>
       <c r="F258" t="n">
         <v>4.2</v>
@@ -9345,7 +9345,7 @@
         <v>5.224833333333335</v>
       </c>
       <c r="E259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F259" t="n">
         <v>5.300000000000001</v>
@@ -9378,7 +9378,7 @@
         <v>2.749166666666668</v>
       </c>
       <c r="E260" t="n">
-        <v>0.07996115538743126</v>
+        <v>0.3157952436194896</v>
       </c>
       <c r="F260" t="n">
         <v>3.05</v>
@@ -9513,7 +9513,7 @@
         <v>-4.398333333333335</v>
       </c>
       <c r="D264" t="n">
-        <v>10.62333333333333</v>
+        <v>6.822500000000002</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>4.45</v>
+        <v>-1.55</v>
       </c>
       <c r="E270" t="n">
         <v>0</v>
@@ -9862,7 +9862,7 @@
         <v>4.749583333333334</v>
       </c>
       <c r="E274" t="n">
-        <v>0.001857837558484416</v>
+        <v>0.3157952436194896</v>
       </c>
       <c r="F274" t="n">
         <v>4.9</v>
@@ -9892,7 +9892,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D275" t="n">
-        <v>2.198333333333335</v>
+        <v>-3.852499999999997</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>4.401666666666666</v>
       </c>
       <c r="D277" t="n">
-        <v>0.1483333333333343</v>
+        <v>-8.052499999999998</v>
       </c>
       <c r="E277" t="n">
         <v>0</v>
@@ -9998,7 +9998,7 @@
         <v>2.6</v>
       </c>
       <c r="E278" t="n">
-        <v>1</v>
+        <v>0.2214827559847434</v>
       </c>
       <c r="F278" t="n">
         <v>2.6</v>
@@ -10098,7 +10098,7 @@
         <v>-1.248333333333335</v>
       </c>
       <c r="D281" t="n">
-        <v>5.798333333333335</v>
+        <v>0.4225000000000021</v>
       </c>
       <c r="E281" t="n">
         <v>0.09002644622874581</v>
@@ -10237,7 +10237,7 @@
         <v>3.239833333333333</v>
       </c>
       <c r="E285" t="n">
-        <v>1</v>
+        <v>0.2512481162893944</v>
       </c>
       <c r="F285" t="n">
         <v>3</v>
@@ -10339,7 +10339,7 @@
         <v>6.101666666666667</v>
       </c>
       <c r="D288" t="n">
-        <v>-1.701666666666666</v>
+        <v>-10.7525</v>
       </c>
       <c r="E288" t="n">
         <v>0.1371346379026571</v>
@@ -10410,7 +10410,7 @@
         <v>2.037083333333334</v>
       </c>
       <c r="E290" t="n">
-        <v>1</v>
+        <v>0.188818919827717</v>
       </c>
       <c r="F290" t="n">
         <v>2.1</v>
@@ -10585,7 +10585,7 @@
         <v>3.599583333333333</v>
       </c>
       <c r="E295" t="n">
-        <v>0.2670143224059714</v>
+        <v>0.4282952436194896</v>
       </c>
       <c r="F295" t="n">
         <v>4.199999999999999</v>
@@ -10653,7 +10653,7 @@
         <v>2.989833333333333</v>
       </c>
       <c r="E297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F297" t="n">
         <v>3</v>
@@ -10752,7 +10752,7 @@
         <v>4.424833333333333</v>
       </c>
       <c r="E300" t="n">
-        <v>1</v>
+        <v>0.07150648084520922</v>
       </c>
       <c r="F300" t="n">
         <v>4.3</v>
@@ -10889,7 +10889,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D304" t="n">
-        <v>6.898333333333334</v>
+        <v>2.447500000000002</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>3.259833333333333</v>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>0.06620038394757527</v>
       </c>
       <c r="F305" t="n">
         <v>3.6</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="E306" t="n">
         <v>0.1988280713663017</v>
@@ -11056,7 +11056,7 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D309" t="n">
-        <v>2.598333333333335</v>
+        <v>-3.702499999999997</v>
       </c>
       <c r="E309" t="n">
         <v>0.07579687094516291</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>3.4</v>
+        <v>-2.6</v>
       </c>
       <c r="E312" t="n">
         <v>0.274721035365517</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>1.95</v>
+        <v>-4.05</v>
       </c>
       <c r="E313" t="n">
         <v>0.005820751033704948</v>
@@ -11228,7 +11228,7 @@
         <v>2.937083333333334</v>
       </c>
       <c r="E314" t="n">
-        <v>0</v>
+        <v>0.006415580339881991</v>
       </c>
       <c r="F314" t="n">
         <v>4</v>
@@ -11398,7 +11398,7 @@
         <v>1.901666666666666</v>
       </c>
       <c r="D319" t="n">
-        <v>0.7983333333333347</v>
+        <v>-6.152499999999999</v>
       </c>
       <c r="E319" t="n">
         <v>0.2473584558740468</v>
@@ -11436,7 +11436,7 @@
         <v>3.149583333333334</v>
       </c>
       <c r="E320" t="n">
-        <v>1</v>
+        <v>0.001575774071683349</v>
       </c>
       <c r="F320" t="n">
         <v>3.05</v>
@@ -11709,7 +11709,7 @@
         <v>2.251666666666665</v>
       </c>
       <c r="D328" t="n">
-        <v>1.998333333333335</v>
+        <v>-5.127499999999998</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
@@ -11782,7 +11782,7 @@
         <v>2.659833333333333</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>0.0204363398575424</v>
       </c>
       <c r="F330" t="n">
         <v>3</v>
@@ -11918,7 +11918,7 @@
         <v>2.90375</v>
       </c>
       <c r="E334" t="n">
-        <v>0</v>
+        <v>0.3794018172052969</v>
       </c>
       <c r="F334" t="n">
         <v>2.966666666666667</v>
@@ -12123,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E340" t="n">
         <v>0.02086767655476254</v>
@@ -12161,7 +12161,7 @@
         <v>1.374833333333334</v>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>0.2850512917211731</v>
       </c>
       <c r="F341" t="n">
         <v>1.5</v>
@@ -12231,7 +12231,7 @@
         <v>3.612083333333334</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>0.1098903505199006</v>
       </c>
       <c r="F343" t="n">
         <v>3.3</v>
@@ -12263,7 +12263,7 @@
         <v>-3.398333333333335</v>
       </c>
       <c r="D344" t="n">
-        <v>4.798333333333336</v>
+        <v>0.4975000000000027</v>
       </c>
       <c r="E344" t="n">
         <v>0.05207089908909667</v>
@@ -12298,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="D345" t="n">
-        <v>1.2</v>
+        <v>-4.8</v>
       </c>
       <c r="E345" t="n">
         <v>0.2695494375576612</v>
@@ -12331,7 +12331,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D346" t="n">
-        <v>5.898333333333334</v>
+        <v>1.447500000000002</v>
       </c>
       <c r="E346" t="n">
         <v>0.3900452436194897</v>
@@ -12364,7 +12364,7 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D347" t="n">
-        <v>2.698333333333335</v>
+        <v>-3.602499999999997</v>
       </c>
       <c r="E347" t="n">
         <v>0.003581038638134304</v>
@@ -12434,10 +12434,10 @@
         <v>-3.398333333333335</v>
       </c>
       <c r="D349" t="n">
-        <v>5.598333333333335</v>
+        <v>1.297500000000003</v>
       </c>
       <c r="E349" t="n">
-        <v>1</v>
+        <v>0.05968460428070568</v>
       </c>
       <c r="F349" t="n">
         <v>2.2</v>
@@ -12537,10 +12537,10 @@
         <v>-2.248333333333335</v>
       </c>
       <c r="D352" t="n">
-        <v>4.748333333333335</v>
+        <v>-0.1274999999999977</v>
       </c>
       <c r="E352" t="n">
-        <v>1</v>
+        <v>0.1530211718292439</v>
       </c>
       <c r="F352" t="n">
         <v>2.5</v>
@@ -12572,7 +12572,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D353" t="n">
-        <v>5.598333333333334</v>
+        <v>1.147500000000002</v>
       </c>
       <c r="E353" t="n">
         <v>0.1060190412851911</v>
@@ -12645,7 +12645,7 @@
         <v>1.599583333333334</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>0.1110875228405107</v>
       </c>
       <c r="F355" t="n">
         <v>2</v>
@@ -12782,10 +12782,10 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D359" t="n">
-        <v>5.498333333333335</v>
+        <v>1.047500000000002</v>
       </c>
       <c r="E359" t="n">
-        <v>1</v>
+        <v>0.2211848362413565</v>
       </c>
       <c r="F359" t="n">
         <v>2.4</v>
@@ -12817,7 +12817,7 @@
         <v>-0.3983333333333352</v>
       </c>
       <c r="D360" t="n">
-        <v>2.398333333333335</v>
+        <v>-3.402499999999997</v>
       </c>
       <c r="E360" t="n">
         <v>0</v>
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>1.15</v>
+        <v>-4.85</v>
       </c>
       <c r="E362" t="n">
         <v>0.1109749917073806</v>
@@ -12953,10 +12953,10 @@
         <v>1.251666666666665</v>
       </c>
       <c r="D364" t="n">
-        <v>1.048333333333335</v>
+        <v>-5.577499999999998</v>
       </c>
       <c r="E364" t="n">
-        <v>1</v>
+        <v>0.3221746791127589</v>
       </c>
       <c r="F364" t="n">
         <v>2.3</v>
@@ -12991,7 +12991,7 @@
         <v>2.337083333333334</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>0.05537397193297554</v>
       </c>
       <c r="F365" t="n">
         <v>3.4</v>
@@ -13023,10 +13023,10 @@
         <v>1.901666666666666</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.1683333333333321</v>
+        <v>-7.119166666666666</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>0.4327713959142169</v>
       </c>
       <c r="F366" t="n">
         <v>1.733333333333333</v>
@@ -13089,7 +13089,7 @@
         <v>-4.398333333333335</v>
       </c>
       <c r="D368" t="n">
-        <v>6.548333333333336</v>
+        <v>2.747500000000003</v>
       </c>
       <c r="E368" t="n">
         <v>0</v>
@@ -13227,7 +13227,7 @@
         <v>4.101666666666665</v>
       </c>
       <c r="D372" t="n">
-        <v>-3.201666666666665</v>
+        <v>-11.2525</v>
       </c>
       <c r="E372" t="n">
         <v>1</v>
@@ -13363,7 +13363,7 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D376" t="n">
-        <v>3.098333333333335</v>
+        <v>-1.702499999999997</v>
       </c>
       <c r="E376" t="n">
         <v>0.5842334011924533</v>
@@ -13396,10 +13396,10 @@
         <v>0</v>
       </c>
       <c r="D377" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E377" t="n">
-        <v>0.100134168870385</v>
+        <v>0.2257952436194896</v>
       </c>
       <c r="F377" t="n">
         <v>2</v>
@@ -13429,7 +13429,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D378" t="n">
-        <v>1.598333333333335</v>
+        <v>-4.452499999999997</v>
       </c>
       <c r="E378" t="n">
         <v>0.05609495769993958</v>
@@ -13502,7 +13502,7 @@
         <v>1.889833333333333</v>
       </c>
       <c r="E380" t="n">
-        <v>1</v>
+        <v>0.08768468671190729</v>
       </c>
       <c r="F380" t="n">
         <v>1.95</v>
@@ -13570,7 +13570,7 @@
         <v>1.95</v>
       </c>
       <c r="E382" t="n">
-        <v>1</v>
+        <v>0.1980412137889447</v>
       </c>
       <c r="F382" t="n">
         <v>1.95</v>
@@ -13602,7 +13602,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D383" t="n">
-        <v>1.098333333333335</v>
+        <v>-4.952499999999997</v>
       </c>
       <c r="E383" t="n">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>1.7065</v>
       </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F384" t="n">
         <v>1.766666666666667</v>
@@ -13673,7 +13673,7 @@
         <v>0.4495833333333337</v>
       </c>
       <c r="E385" t="n">
-        <v>1</v>
+        <v>0.2036917260967116</v>
       </c>
       <c r="F385" t="n">
         <v>1.3</v>
@@ -13739,7 +13739,7 @@
         <v>1.249583333333334</v>
       </c>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0.4282952436194896</v>
       </c>
       <c r="F387" t="n">
         <v>1.85</v>
@@ -13804,7 +13804,7 @@
         <v>-6.098333333333334</v>
       </c>
       <c r="D389" t="n">
-        <v>6.948333333333334</v>
+        <v>3.997500000000001</v>
       </c>
       <c r="E389" t="n">
         <v>0</v>
@@ -13872,7 +13872,7 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D391" t="n">
-        <v>4.098333333333335</v>
+        <v>-0.7024999999999972</v>
       </c>
       <c r="E391" t="n">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>1.899583333333334</v>
       </c>
       <c r="E392" t="n">
-        <v>1</v>
+        <v>0.3402165072607696</v>
       </c>
       <c r="F392" t="n">
         <v>1.3</v>
@@ -13945,7 +13945,7 @@
         <v>3.324583333333334</v>
       </c>
       <c r="E393" t="n">
-        <v>0.8595222979471624</v>
+        <v>0.2295222979471629</v>
       </c>
       <c r="F393" t="n">
         <v>1.8</v>
@@ -14113,7 +14113,7 @@
         <v>1.601666666666665</v>
       </c>
       <c r="D398" t="n">
-        <v>0.1983333333333352</v>
+        <v>-6.602499999999996</v>
       </c>
       <c r="E398" t="n">
         <v>0.0965211166569671</v>
@@ -14280,10 +14280,10 @@
         <v>2.401666666666666</v>
       </c>
       <c r="D403" t="n">
-        <v>1.248333333333335</v>
+        <v>-5.952499999999999</v>
       </c>
       <c r="E403" t="n">
-        <v>0.199249736449282</v>
+        <v>0.4282952436194896</v>
       </c>
       <c r="F403" t="n">
         <v>3.65</v>
@@ -14313,10 +14313,10 @@
         <v>1.101666666666665</v>
       </c>
       <c r="D404" t="n">
-        <v>0.4983333333333353</v>
+        <v>-6.052499999999997</v>
       </c>
       <c r="E404" t="n">
-        <v>1</v>
+        <v>0.2257952436194896</v>
       </c>
       <c r="F404" t="n">
         <v>1.6</v>
@@ -14349,7 +14349,7 @@
         <v>-0.4508333333333323</v>
       </c>
       <c r="E405" t="n">
-        <v>0.2920494375576612</v>
+        <v>0.4800452436194896</v>
       </c>
       <c r="F405" t="n">
         <v>1.6</v>
@@ -14584,7 +14584,7 @@
         <v>0.6</v>
       </c>
       <c r="E412" t="n">
-        <v>0.1832471439540169</v>
+        <v>0.2257952436194896</v>
       </c>
       <c r="F412" t="n">
         <v>0.6</v>
@@ -14616,7 +14616,7 @@
         <v>0.2516666666666652</v>
       </c>
       <c r="D413" t="n">
-        <v>2.248333333333335</v>
+        <v>-3.877499999999998</v>
       </c>
       <c r="E413" t="n">
         <v>0</v>
@@ -14719,7 +14719,7 @@
         <v>-4.398333333333335</v>
       </c>
       <c r="D416" t="n">
-        <v>5.448333333333335</v>
+        <v>1.647500000000003</v>
       </c>
       <c r="E416" t="n">
         <v>0</v>
@@ -14752,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="D417" t="n">
-        <v>1.4</v>
+        <v>-4.6</v>
       </c>
       <c r="E417" t="n">
         <v>1</v>
@@ -14892,10 +14892,10 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D421" t="n">
-        <v>-3.251666666666665</v>
+        <v>-11.3775</v>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>0.05915129610469937</v>
       </c>
       <c r="F421" t="n">
         <v>1</v>
@@ -14995,7 +14995,7 @@
         <v>4.101666666666665</v>
       </c>
       <c r="D424" t="n">
-        <v>-3.151666666666665</v>
+        <v>-11.2025</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
@@ -15063,7 +15063,7 @@
         <v>2.401666666666666</v>
       </c>
       <c r="D426" t="n">
-        <v>-1.501666666666666</v>
+        <v>-8.702499999999999</v>
       </c>
       <c r="E426" t="n">
         <v>0</v>
@@ -15132,7 +15132,7 @@
         <v>1.324583333333334</v>
       </c>
       <c r="E428" t="n">
-        <v>0.470204251543393</v>
+        <v>0.6150452436194895</v>
       </c>
       <c r="F428" t="n">
         <v>1.3</v>
@@ -15162,7 +15162,7 @@
         <v>2.251666666666665</v>
       </c>
       <c r="D429" t="n">
-        <v>-0.9516666666666651</v>
+        <v>-8.077499999999997</v>
       </c>
       <c r="E429" t="n">
         <v>0</v>
@@ -15233,7 +15233,7 @@
         <v>0.9245833333333338</v>
       </c>
       <c r="E431" t="n">
-        <v>0.1001341688703851</v>
+        <v>0.2257952436194896</v>
       </c>
       <c r="F431" t="n">
         <v>1.2</v>
@@ -15366,7 +15366,7 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D435" t="n">
-        <v>2.598333333333335</v>
+        <v>-2.202499999999997</v>
       </c>
       <c r="E435" t="n">
         <v>0.2712853904771085</v>
@@ -15404,7 +15404,7 @@
         <v>1.089833333333334</v>
       </c>
       <c r="E436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F436" t="n">
         <v>1.1</v>
@@ -15434,7 +15434,7 @@
         <v>2.401666666666666</v>
       </c>
       <c r="D437" t="n">
-        <v>-2.101666666666666</v>
+        <v>-9.302499999999998</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
@@ -15467,7 +15467,7 @@
         <v>6.101666666666667</v>
       </c>
       <c r="D438" t="n">
-        <v>-4.901666666666666</v>
+        <v>-13.9525</v>
       </c>
       <c r="E438" t="n">
         <v>0</v>
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="D442" t="n">
-        <v>0.5</v>
+        <v>-5.5</v>
       </c>
       <c r="E442" t="n">
         <v>0.4631077836550788</v>
@@ -15642,7 +15642,7 @@
         <v>-2.248333333333335</v>
       </c>
       <c r="D443" t="n">
-        <v>2.881666666666668</v>
+        <v>-1.994166666666664</v>
       </c>
       <c r="E443" t="n">
         <v>0.5056264794023508</v>
@@ -15711,7 +15711,7 @@
         <v>0.4991666666666672</v>
       </c>
       <c r="E445" t="n">
-        <v>1</v>
+        <v>0.1716826987520381</v>
       </c>
       <c r="F445" t="n">
         <v>1.7</v>
@@ -15744,7 +15744,7 @@
         <v>0.3245833333333337</v>
       </c>
       <c r="E446" t="n">
-        <v>1</v>
+        <v>0.307743812009743</v>
       </c>
       <c r="F446" t="n">
         <v>0.8</v>
@@ -15779,7 +15779,7 @@
         <v>-0.2254166666666662</v>
       </c>
       <c r="E447" t="n">
-        <v>1</v>
+        <v>0.2130284934278411</v>
       </c>
       <c r="F447" t="n">
         <v>0.8</v>
@@ -15811,7 +15811,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D448" t="n">
-        <v>-0.1016666666666648</v>
+        <v>-6.152499999999997</v>
       </c>
       <c r="E448" t="n">
         <v>0</v>
@@ -15884,7 +15884,7 @@
         <v>-0.3401666666666666</v>
       </c>
       <c r="E450" t="n">
-        <v>0</v>
+        <v>0.01941776402953812</v>
       </c>
       <c r="F450" t="n">
         <v>0</v>
@@ -15987,7 +15987,7 @@
         <v>0.2491666666666676</v>
       </c>
       <c r="E453" t="n">
-        <v>1</v>
+        <v>0.2257952436194896</v>
       </c>
       <c r="F453" t="n">
         <v>0.8</v>
@@ -16219,7 +16219,7 @@
         <v>4.401666666666666</v>
       </c>
       <c r="D460" t="n">
-        <v>-4.301666666666666</v>
+        <v>-12.5025</v>
       </c>
       <c r="E460" t="n">
         <v>0</v>
@@ -16290,7 +16290,7 @@
         <v>1.112083333333334</v>
       </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>0.09885457147436469</v>
       </c>
       <c r="F462" t="n">
         <v>1.3</v>
@@ -16392,7 +16392,7 @@
         <v>-0.3983333333333352</v>
       </c>
       <c r="D465" t="n">
-        <v>0.3983333333333352</v>
+        <v>-5.402499999999997</v>
       </c>
       <c r="E465" t="n">
         <v>0</v>
@@ -16427,7 +16427,7 @@
         <v>2.251666666666665</v>
       </c>
       <c r="D466" t="n">
-        <v>-1.551666666666665</v>
+        <v>-8.677499999999998</v>
       </c>
       <c r="E466" t="n">
         <v>0</v>
@@ -16530,7 +16530,7 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D469" t="n">
-        <v>0.4983333333333353</v>
+        <v>-5.802499999999997</v>
       </c>
       <c r="E469" t="n">
         <v>0.3157952436194896</v>
@@ -16563,7 +16563,7 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D470" t="n">
-        <v>-4.101666666666665</v>
+        <v>-12.2275</v>
       </c>
       <c r="E470" t="n">
         <v>0.8181715587654168</v>
@@ -16634,7 +16634,7 @@
         <v>0.5098333333333335</v>
       </c>
       <c r="E472" t="n">
-        <v>0.8384586642216387</v>
+        <v>0.6150452436194895</v>
       </c>
       <c r="F472" t="n">
         <v>0.5</v>
@@ -16667,7 +16667,7 @@
         <v>0.5398333333333335</v>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>0.1395672202336669</v>
       </c>
       <c r="F473" t="n">
         <v>0</v>
@@ -16699,7 +16699,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D474" t="n">
-        <v>0.1983333333333352</v>
+        <v>-5.852499999999997</v>
       </c>
       <c r="E474" t="n">
         <v>0.4000343554541426</v>
@@ -16732,7 +16732,7 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D475" t="n">
-        <v>-3.951666666666665</v>
+        <v>-12.0775</v>
       </c>
       <c r="E475" t="n">
         <v>0.5125343554541426</v>
@@ -16765,7 +16765,7 @@
         <v>4.101666666666665</v>
       </c>
       <c r="D476" t="n">
-        <v>-3.901666666666665</v>
+        <v>-11.9525</v>
       </c>
       <c r="E476" t="n">
         <v>0</v>
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="D477" t="n">
-        <v>2.8</v>
+        <v>-3.2</v>
       </c>
       <c r="E477" t="n">
         <v>0</v>
@@ -16866,7 +16866,7 @@
         <v>1.901666666666666</v>
       </c>
       <c r="D479" t="n">
-        <v>-1.751666666666666</v>
+        <v>-8.702499999999999</v>
       </c>
       <c r="E479" t="n">
         <v>0.9018005750327205</v>
@@ -16936,10 +16936,10 @@
         <v>3.401666666666666</v>
       </c>
       <c r="D481" t="n">
-        <v>-3.201666666666665</v>
+        <v>-10.9025</v>
       </c>
       <c r="E481" t="n">
-        <v>0</v>
+        <v>0.1383892913528876</v>
       </c>
       <c r="F481" t="n">
         <v>0.2</v>

--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -530,7 +530,7 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.602499999999997</v>
+        <v>-0.6024999999999974</v>
       </c>
       <c r="E3" t="n">
         <v>0.3157952436194896</v>
@@ -565,7 +565,7 @@
         <v>-1.248333333333335</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.427499999999998</v>
+        <v>-0.4274999999999978</v>
       </c>
       <c r="E4" t="n">
         <v>0.3742952436194896</v>
@@ -600,7 +600,7 @@
         <v>3.401666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>-11.1025</v>
+        <v>-8.102499999999999</v>
       </c>
       <c r="E5" t="n">
         <v>0.3157952436194896</v>
@@ -740,7 +740,7 @@
         <v>4.101666666666665</v>
       </c>
       <c r="D9" t="n">
-        <v>4.847500000000004</v>
+        <v>7.847500000000004</v>
       </c>
       <c r="E9" t="n">
         <v>0.1948616908572694</v>
@@ -880,7 +880,7 @@
         <v>1.251666666666665</v>
       </c>
       <c r="D13" t="n">
-        <v>9.722500000000004</v>
+        <v>12.7225</v>
       </c>
       <c r="E13" t="n">
         <v>0.2292730773269957</v>
@@ -1259,7 +1259,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D24" t="n">
-        <v>10.9475</v>
+        <v>13.9475</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>11.6</v>
+        <v>14.6</v>
       </c>
       <c r="E31" t="n">
         <v>0.3180873634202655</v>
@@ -1533,7 +1533,7 @@
         <v>1.901666666666666</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7475000000000005</v>
+        <v>3.747500000000001</v>
       </c>
       <c r="E32" t="n">
         <v>0.1520953721898909</v>
@@ -1568,7 +1568,7 @@
         <v>2.401666666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>6.297500000000001</v>
+        <v>9.297500000000003</v>
       </c>
       <c r="E33" t="n">
         <v>0.1402127769751151</v>
@@ -1669,7 +1669,7 @@
         <v>6.101666666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.852499999999999</v>
+        <v>1.147500000000001</v>
       </c>
       <c r="E36" t="n">
         <v>0.04475048307924606</v>
@@ -1704,7 +1704,7 @@
         <v>0.7516666666666652</v>
       </c>
       <c r="D37" t="n">
-        <v>6.772500000000003</v>
+        <v>9.772500000000003</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>10.7</v>
+        <v>13.7</v>
       </c>
       <c r="E39" t="n">
         <v>0.1953728670674525</v>
@@ -1807,7 +1807,7 @@
         <v>-3.898333333333335</v>
       </c>
       <c r="D40" t="n">
-        <v>16.44750000000001</v>
+        <v>19.44750000000001</v>
       </c>
       <c r="E40" t="n">
         <v>0.125123675198358</v>
@@ -1910,7 +1910,7 @@
         <v>-1.248333333333335</v>
       </c>
       <c r="D43" t="n">
-        <v>11.1725</v>
+        <v>14.1725</v>
       </c>
       <c r="E43" t="n">
         <v>0.05636689978396123</v>
@@ -2013,7 +2013,7 @@
         <v>1.101666666666665</v>
       </c>
       <c r="D46" t="n">
-        <v>8.547500000000003</v>
+        <v>11.5475</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>-3.398333333333335</v>
       </c>
       <c r="D50" t="n">
-        <v>13.9975</v>
+        <v>16.9975</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -2217,7 +2217,7 @@
         <v>6.101666666666667</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9475000000000016</v>
+        <v>3.947500000000002</v>
       </c>
       <c r="E52" t="n">
         <v>0.3517952436194897</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E58" t="n">
         <v>0.3157277909484574</v>
@@ -2460,7 +2460,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D59" t="n">
-        <v>5.047500000000002</v>
+        <v>8.047500000000003</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -2530,7 +2530,7 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D61" t="n">
-        <v>8.097500000000004</v>
+        <v>11.0975</v>
       </c>
       <c r="E61" t="n">
         <v>0.1861278874112874</v>
@@ -2598,7 +2598,7 @@
         <v>-2.248333333333335</v>
       </c>
       <c r="D63" t="n">
-        <v>12.5725</v>
+        <v>15.5725</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>-5.398333333333335</v>
       </c>
       <c r="D64" t="n">
-        <v>16.2975</v>
+        <v>19.2975</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>3.401666666666666</v>
       </c>
       <c r="D70" t="n">
-        <v>3.5975</v>
+        <v>6.5975</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>2.251666666666665</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.6774999999999984</v>
+        <v>2.322500000000002</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>-0.3983333333333352</v>
       </c>
       <c r="D72" t="n">
-        <v>8.797500000000003</v>
+        <v>11.7975</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>-0.09833333333333449</v>
       </c>
       <c r="D78" t="n">
-        <v>8.547500000000003</v>
+        <v>11.5475</v>
       </c>
       <c r="E78" t="n">
         <v>0.2856855349666269</v>
@@ -3214,7 +3214,7 @@
         <v>1.601666666666665</v>
       </c>
       <c r="D81" t="n">
-        <v>4.697500000000003</v>
+        <v>7.697500000000002</v>
       </c>
       <c r="E81" t="n">
         <v>0.07838184655059607</v>
@@ -3484,7 +3484,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D89" t="n">
-        <v>11.7475</v>
+        <v>14.7475</v>
       </c>
       <c r="E89" t="n">
         <v>0.06089266452621327</v>
@@ -3587,7 +3587,7 @@
         <v>0.2516666666666652</v>
       </c>
       <c r="D92" t="n">
-        <v>4.672500000000003</v>
+        <v>7.672500000000003</v>
       </c>
       <c r="E92" t="n">
         <v>0.0984565639489105</v>
@@ -3830,7 +3830,7 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.077499999999997</v>
+        <v>1.922500000000003</v>
       </c>
       <c r="E99" t="n">
         <v>0.0614944478584268</v>
@@ -3865,7 +3865,7 @@
         <v>-6.098333333333334</v>
       </c>
       <c r="D100" t="n">
-        <v>15.2475</v>
+        <v>18.2475</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0.2516666666666652</v>
       </c>
       <c r="D105" t="n">
-        <v>6.122500000000002</v>
+        <v>9.122500000000002</v>
       </c>
       <c r="E105" t="n">
         <v>0.08431982345497495</v>
@@ -4248,7 +4248,7 @@
         <v>1.601666666666665</v>
       </c>
       <c r="D111" t="n">
-        <v>3.097500000000004</v>
+        <v>6.097500000000003</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="E132" t="n">
         <v>0.1405222788065849</v>
@@ -5045,7 +5045,7 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D134" t="n">
-        <v>2.747500000000003</v>
+        <v>5.747500000000003</v>
       </c>
       <c r="E134" t="n">
         <v>0.02191050553982613</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>4.199999999999999</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D152" t="n">
-        <v>2.647500000000004</v>
+        <v>5.647500000000004</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0.7516666666666652</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.827499999999998</v>
+        <v>1.172500000000002</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -6835,7 +6835,7 @@
         <v>-0.09833333333333449</v>
       </c>
       <c r="D186" t="n">
-        <v>1.147500000000002</v>
+        <v>4.147500000000002</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>-4.398333333333335</v>
       </c>
       <c r="D187" t="n">
-        <v>7.997500000000003</v>
+        <v>10.9975</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D188" t="n">
-        <v>-4.477499999999997</v>
+        <v>-1.477499999999997</v>
       </c>
       <c r="E188" t="n">
         <v>0.06002161456293105</v>
@@ -7074,7 +7074,7 @@
         <v>-5.398333333333335</v>
       </c>
       <c r="D193" t="n">
-        <v>9.497500000000002</v>
+        <v>12.4975</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>-3.898333333333335</v>
       </c>
       <c r="D197" t="n">
-        <v>6.147500000000004</v>
+        <v>9.147500000000004</v>
       </c>
       <c r="E197" t="n">
         <v>0.1504351088898443</v>
@@ -7418,7 +7418,7 @@
         <v>3.401666666666666</v>
       </c>
       <c r="D203" t="n">
-        <v>-6.0025</v>
+        <v>-3.0025</v>
       </c>
       <c r="E203" t="n">
         <v>0.04041325338604834</v>
@@ -7521,7 +7521,7 @@
         <v>4.401666666666666</v>
       </c>
       <c r="D206" t="n">
-        <v>-4.702499999999999</v>
+        <v>-1.702499999999999</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1475000000000026</v>
+        <v>3.147500000000003</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>-6.098333333333334</v>
       </c>
       <c r="D243" t="n">
-        <v>8.447500000000002</v>
+        <v>11.4475</v>
       </c>
       <c r="E243" t="n">
         <v>0.04102926704912346</v>
@@ -9136,7 +9136,7 @@
         <v>1.101666666666665</v>
       </c>
       <c r="D253" t="n">
-        <v>-2.152499999999997</v>
+        <v>0.8475000000000028</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
@@ -9307,7 +9307,7 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D258" t="n">
-        <v>1.797500000000003</v>
+        <v>4.797500000000003</v>
       </c>
       <c r="E258" t="n">
         <v>0.2266018749501066</v>
@@ -9513,7 +9513,7 @@
         <v>-4.398333333333335</v>
       </c>
       <c r="D264" t="n">
-        <v>6.822500000000002</v>
+        <v>9.822500000000002</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E270" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D275" t="n">
-        <v>-3.852499999999997</v>
+        <v>-0.8524999999999974</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>4.401666666666666</v>
       </c>
       <c r="D277" t="n">
-        <v>-8.052499999999998</v>
+        <v>-5.052499999999999</v>
       </c>
       <c r="E277" t="n">
         <v>0</v>
@@ -10098,7 +10098,7 @@
         <v>-1.248333333333335</v>
       </c>
       <c r="D281" t="n">
-        <v>0.4225000000000021</v>
+        <v>3.422500000000002</v>
       </c>
       <c r="E281" t="n">
         <v>0.09002644622874581</v>
@@ -10339,7 +10339,7 @@
         <v>6.101666666666667</v>
       </c>
       <c r="D288" t="n">
-        <v>-10.7525</v>
+        <v>-7.7525</v>
       </c>
       <c r="E288" t="n">
         <v>0.1371346379026571</v>
@@ -10889,7 +10889,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D304" t="n">
-        <v>2.447500000000002</v>
+        <v>5.447500000000002</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>-3.1</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E306" t="n">
         <v>0.1988280713663017</v>
@@ -11056,7 +11056,7 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D309" t="n">
-        <v>-3.702499999999997</v>
+        <v>-0.702499999999997</v>
       </c>
       <c r="E309" t="n">
         <v>0.07579687094516291</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>-2.6</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E312" t="n">
         <v>0.274721035365517</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>-4.05</v>
+        <v>-1.05</v>
       </c>
       <c r="E313" t="n">
         <v>0.005820751033704948</v>
@@ -11398,7 +11398,7 @@
         <v>1.901666666666666</v>
       </c>
       <c r="D319" t="n">
-        <v>-6.152499999999999</v>
+        <v>-3.152499999999998</v>
       </c>
       <c r="E319" t="n">
         <v>0.2473584558740468</v>
@@ -11709,7 +11709,7 @@
         <v>2.251666666666665</v>
       </c>
       <c r="D328" t="n">
-        <v>-5.127499999999998</v>
+        <v>-2.127499999999998</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
@@ -12123,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E340" t="n">
         <v>0.02086767655476254</v>
@@ -12263,7 +12263,7 @@
         <v>-3.398333333333335</v>
       </c>
       <c r="D344" t="n">
-        <v>0.4975000000000027</v>
+        <v>3.497500000000003</v>
       </c>
       <c r="E344" t="n">
         <v>0.05207089908909667</v>
@@ -12298,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="D345" t="n">
-        <v>-4.8</v>
+        <v>-1.8</v>
       </c>
       <c r="E345" t="n">
         <v>0.2695494375576612</v>
@@ -12331,7 +12331,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D346" t="n">
-        <v>1.447500000000002</v>
+        <v>4.447500000000002</v>
       </c>
       <c r="E346" t="n">
         <v>0.3900452436194897</v>
@@ -12364,7 +12364,7 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D347" t="n">
-        <v>-3.602499999999997</v>
+        <v>-0.6024999999999974</v>
       </c>
       <c r="E347" t="n">
         <v>0.003581038638134304</v>
@@ -12434,7 +12434,7 @@
         <v>-3.398333333333335</v>
       </c>
       <c r="D349" t="n">
-        <v>1.297500000000003</v>
+        <v>4.297500000000003</v>
       </c>
       <c r="E349" t="n">
         <v>0.05968460428070568</v>
@@ -12537,7 +12537,7 @@
         <v>-2.248333333333335</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.1274999999999977</v>
+        <v>2.872500000000002</v>
       </c>
       <c r="E352" t="n">
         <v>0.1530211718292439</v>
@@ -12572,7 +12572,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D353" t="n">
-        <v>1.147500000000002</v>
+        <v>4.147500000000002</v>
       </c>
       <c r="E353" t="n">
         <v>0.1060190412851911</v>
@@ -12782,7 +12782,7 @@
         <v>-3.098333333333334</v>
       </c>
       <c r="D359" t="n">
-        <v>1.047500000000002</v>
+        <v>4.047500000000002</v>
       </c>
       <c r="E359" t="n">
         <v>0.2211848362413565</v>
@@ -12817,7 +12817,7 @@
         <v>-0.3983333333333352</v>
       </c>
       <c r="D360" t="n">
-        <v>-3.402499999999997</v>
+        <v>-0.4024999999999972</v>
       </c>
       <c r="E360" t="n">
         <v>0</v>
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>-4.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E362" t="n">
         <v>0.1109749917073806</v>
@@ -12953,7 +12953,7 @@
         <v>1.251666666666665</v>
       </c>
       <c r="D364" t="n">
-        <v>-5.577499999999998</v>
+        <v>-2.577499999999998</v>
       </c>
       <c r="E364" t="n">
         <v>0.3221746791127589</v>
@@ -13023,7 +13023,7 @@
         <v>1.901666666666666</v>
       </c>
       <c r="D366" t="n">
-        <v>-7.119166666666666</v>
+        <v>-4.119166666666665</v>
       </c>
       <c r="E366" t="n">
         <v>0.4327713959142169</v>
@@ -13089,7 +13089,7 @@
         <v>-4.398333333333335</v>
       </c>
       <c r="D368" t="n">
-        <v>2.747500000000003</v>
+        <v>5.747500000000002</v>
       </c>
       <c r="E368" t="n">
         <v>0</v>
@@ -13227,7 +13227,7 @@
         <v>4.101666666666665</v>
       </c>
       <c r="D372" t="n">
-        <v>-11.2525</v>
+        <v>-8.252499999999996</v>
       </c>
       <c r="E372" t="n">
         <v>1</v>
@@ -13363,7 +13363,7 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D376" t="n">
-        <v>-1.702499999999997</v>
+        <v>1.297500000000003</v>
       </c>
       <c r="E376" t="n">
         <v>0.5842334011924533</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="D377" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E377" t="n">
         <v>0.2257952436194896</v>
@@ -13429,7 +13429,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D378" t="n">
-        <v>-4.452499999999997</v>
+        <v>-1.452499999999997</v>
       </c>
       <c r="E378" t="n">
         <v>0.05609495769993958</v>
@@ -13602,7 +13602,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D383" t="n">
-        <v>-4.952499999999997</v>
+        <v>-1.952499999999997</v>
       </c>
       <c r="E383" t="n">
         <v>0</v>
@@ -13804,7 +13804,7 @@
         <v>-6.098333333333334</v>
       </c>
       <c r="D389" t="n">
-        <v>3.997500000000001</v>
+        <v>6.9975</v>
       </c>
       <c r="E389" t="n">
         <v>0</v>
@@ -13872,7 +13872,7 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.7024999999999972</v>
+        <v>2.297500000000003</v>
       </c>
       <c r="E391" t="n">
         <v>0</v>
@@ -14113,7 +14113,7 @@
         <v>1.601666666666665</v>
       </c>
       <c r="D398" t="n">
-        <v>-6.602499999999996</v>
+        <v>-3.602499999999997</v>
       </c>
       <c r="E398" t="n">
         <v>0.0965211166569671</v>
@@ -14280,7 +14280,7 @@
         <v>2.401666666666666</v>
       </c>
       <c r="D403" t="n">
-        <v>-5.952499999999999</v>
+        <v>-2.952499999999998</v>
       </c>
       <c r="E403" t="n">
         <v>0.4282952436194896</v>
@@ -14313,7 +14313,7 @@
         <v>1.101666666666665</v>
       </c>
       <c r="D404" t="n">
-        <v>-6.052499999999997</v>
+        <v>-3.052499999999997</v>
       </c>
       <c r="E404" t="n">
         <v>0.2257952436194896</v>
@@ -14616,7 +14616,7 @@
         <v>0.2516666666666652</v>
       </c>
       <c r="D413" t="n">
-        <v>-3.877499999999998</v>
+        <v>-0.8774999999999977</v>
       </c>
       <c r="E413" t="n">
         <v>0</v>
@@ -14719,7 +14719,7 @@
         <v>-4.398333333333335</v>
       </c>
       <c r="D416" t="n">
-        <v>1.647500000000003</v>
+        <v>4.647500000000003</v>
       </c>
       <c r="E416" t="n">
         <v>0</v>
@@ -14752,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="D417" t="n">
-        <v>-4.6</v>
+        <v>-1.6</v>
       </c>
       <c r="E417" t="n">
         <v>1</v>
@@ -14892,7 +14892,7 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D421" t="n">
-        <v>-11.3775</v>
+        <v>-8.377499999999998</v>
       </c>
       <c r="E421" t="n">
         <v>0.05915129610469937</v>
@@ -14995,7 +14995,7 @@
         <v>4.101666666666665</v>
       </c>
       <c r="D424" t="n">
-        <v>-11.2025</v>
+        <v>-8.202499999999997</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
@@ -15063,7 +15063,7 @@
         <v>2.401666666666666</v>
       </c>
       <c r="D426" t="n">
-        <v>-8.702499999999999</v>
+        <v>-5.702499999999998</v>
       </c>
       <c r="E426" t="n">
         <v>0</v>
@@ -15162,7 +15162,7 @@
         <v>2.251666666666665</v>
       </c>
       <c r="D429" t="n">
-        <v>-8.077499999999997</v>
+        <v>-5.077499999999998</v>
       </c>
       <c r="E429" t="n">
         <v>0</v>
@@ -15366,7 +15366,7 @@
         <v>-2.398333333333335</v>
       </c>
       <c r="D435" t="n">
-        <v>-2.202499999999997</v>
+        <v>0.7975000000000028</v>
       </c>
       <c r="E435" t="n">
         <v>0.2712853904771085</v>
@@ -15434,7 +15434,7 @@
         <v>2.401666666666666</v>
       </c>
       <c r="D437" t="n">
-        <v>-9.302499999999998</v>
+        <v>-6.302499999999998</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
@@ -15467,7 +15467,7 @@
         <v>6.101666666666667</v>
       </c>
       <c r="D438" t="n">
-        <v>-13.9525</v>
+        <v>-10.9525</v>
       </c>
       <c r="E438" t="n">
         <v>0</v>
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="D442" t="n">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E442" t="n">
         <v>0.4631077836550788</v>
@@ -15642,7 +15642,7 @@
         <v>-2.248333333333335</v>
       </c>
       <c r="D443" t="n">
-        <v>-1.994166666666664</v>
+        <v>1.005833333333336</v>
       </c>
       <c r="E443" t="n">
         <v>0.5056264794023508</v>
@@ -15811,7 +15811,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D448" t="n">
-        <v>-6.152499999999997</v>
+        <v>-3.152499999999997</v>
       </c>
       <c r="E448" t="n">
         <v>0</v>
@@ -16219,7 +16219,7 @@
         <v>4.401666666666666</v>
       </c>
       <c r="D460" t="n">
-        <v>-12.5025</v>
+        <v>-9.5025</v>
       </c>
       <c r="E460" t="n">
         <v>0</v>
@@ -16392,7 +16392,7 @@
         <v>-0.3983333333333352</v>
       </c>
       <c r="D465" t="n">
-        <v>-5.402499999999997</v>
+        <v>-2.402499999999997</v>
       </c>
       <c r="E465" t="n">
         <v>0</v>
@@ -16427,7 +16427,7 @@
         <v>2.251666666666665</v>
       </c>
       <c r="D466" t="n">
-        <v>-8.677499999999998</v>
+        <v>-5.677499999999998</v>
       </c>
       <c r="E466" t="n">
         <v>0</v>
@@ -16530,7 +16530,7 @@
         <v>0.6016666666666648</v>
       </c>
       <c r="D469" t="n">
-        <v>-5.802499999999997</v>
+        <v>-2.802499999999997</v>
       </c>
       <c r="E469" t="n">
         <v>0.3157952436194896</v>
@@ -16563,7 +16563,7 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D470" t="n">
-        <v>-12.2275</v>
+        <v>-9.227499999999997</v>
       </c>
       <c r="E470" t="n">
         <v>0.8181715587654168</v>
@@ -16699,7 +16699,7 @@
         <v>0.1016666666666648</v>
       </c>
       <c r="D474" t="n">
-        <v>-5.852499999999997</v>
+        <v>-2.852499999999997</v>
       </c>
       <c r="E474" t="n">
         <v>0.4000343554541426</v>
@@ -16732,7 +16732,7 @@
         <v>4.251666666666665</v>
       </c>
       <c r="D475" t="n">
-        <v>-12.0775</v>
+        <v>-9.077499999999997</v>
       </c>
       <c r="E475" t="n">
         <v>0.5125343554541426</v>
@@ -16765,7 +16765,7 @@
         <v>4.101666666666665</v>
       </c>
       <c r="D476" t="n">
-        <v>-11.9525</v>
+        <v>-8.952499999999997</v>
       </c>
       <c r="E476" t="n">
         <v>0</v>
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="D477" t="n">
-        <v>-3.2</v>
+        <v>-0.1999999999999997</v>
       </c>
       <c r="E477" t="n">
         <v>0</v>
@@ -16866,7 +16866,7 @@
         <v>1.901666666666666</v>
       </c>
       <c r="D479" t="n">
-        <v>-8.702499999999999</v>
+        <v>-5.702499999999998</v>
       </c>
       <c r="E479" t="n">
         <v>0.9018005750327205</v>
@@ -16936,7 +16936,7 @@
         <v>3.401666666666666</v>
       </c>
       <c r="D481" t="n">
-        <v>-10.9025</v>
+        <v>-7.902499999999999</v>
       </c>
       <c r="E481" t="n">
         <v>0.1383892913528876</v>

--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -3223,13 +3223,13 @@
         <v>-2.108333333333334</v>
       </c>
       <c r="D22">
-        <v>17.85416666666667</v>
+        <v>6.054166666666667</v>
       </c>
       <c r="E22">
         <v>0.08895614269024346</v>
       </c>
       <c r="F22">
-        <v>16.8</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>17.5</v>

--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -3223,19 +3223,19 @@
         <v>-2.108333333333334</v>
       </c>
       <c r="D22">
-        <v>6.054166666666667</v>
+        <v>1.054166666666667</v>
       </c>
       <c r="E22">
         <v>0.08895614269024346</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>17.5</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>74.02374593859034</v>
@@ -7007,7 +7007,7 @@
         <v>10</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>68.19592889821277</v>
@@ -9653,7 +9653,7 @@
         <v>2.8</v>
       </c>
       <c r="H225">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I225">
         <v>51.4366757873423</v>
@@ -12205,19 +12205,19 @@
         <v>-2.108333333333334</v>
       </c>
       <c r="D307">
-        <v>6.054166666666667</v>
+        <v>11.05416666666667</v>
       </c>
       <c r="E307">
         <v>1</v>
       </c>
       <c r="F307">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G307">
         <v>7.8</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>71.22258797498186</v>
@@ -13923,7 +13923,7 @@
         <v>2</v>
       </c>
       <c r="H362">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I362">
         <v>54.65200604932268</v>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="H396">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I396">
         <v>0</v>
@@ -16760,7 +16760,7 @@
         <v>7.1</v>
       </c>
       <c r="H453">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I453">
         <v>0</v>
@@ -18907,16 +18907,16 @@
         <v>-2.108333333333334</v>
       </c>
       <c r="D523">
-        <v>4.108333333333334</v>
+        <v>11.10833333333333</v>
       </c>
       <c r="E523">
         <v>0.391254372019078</v>
       </c>
       <c r="F523">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523">
         <v>62.5</v>
@@ -22359,16 +22359,16 @@
         <v>0</v>
       </c>
       <c r="D641">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E641">
         <v>0</v>
       </c>
       <c r="F641">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H641">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641">
         <v>0</v>

--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -2747,19 +2747,19 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D9">
-        <v>24.24166666666667</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0.134477819225322</v>
       </c>
       <c r="F9">
-        <v>22.35</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>4.5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>74.90475979550561</v>
@@ -3131,13 +3131,13 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D21">
-        <v>15.78333333333333</v>
+        <v>11.01333333333333</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>15.9</v>
+        <v>11.13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3256,13 +3256,13 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D25">
-        <v>11.88333333333333</v>
+        <v>7.413333333333334</v>
       </c>
       <c r="E25">
         <v>0.08190262794701228</v>
       </c>
       <c r="F25">
-        <v>14.9</v>
+        <v>10.43</v>
       </c>
       <c r="G25">
         <v>26.6</v>
@@ -3384,13 +3384,13 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D29">
-        <v>16.83333333333333</v>
+        <v>11.83833333333333</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>16.65</v>
+        <v>11.655</v>
       </c>
       <c r="G29">
         <v>17</v>
@@ -3512,13 +3512,13 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D33">
-        <v>12.53333333333333</v>
+        <v>7.988333333333333</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>15.15</v>
+        <v>10.605</v>
       </c>
       <c r="G33">
         <v>32.5</v>
@@ -3748,7 +3748,7 @@
         <v>11.4</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>66.72872575462618</v>
@@ -3768,13 +3768,13 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D41">
-        <v>13.23333333333333</v>
+        <v>14.28833333333333</v>
       </c>
       <c r="E41">
         <v>0.04453406709035423</v>
       </c>
       <c r="F41">
-        <v>13.15</v>
+        <v>14.205</v>
       </c>
       <c r="G41">
         <v>10.9</v>
@@ -3829,13 +3829,13 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D43">
-        <v>14.73333333333333</v>
+        <v>15.54833333333333</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>13.95</v>
+        <v>14.765</v>
       </c>
       <c r="G43">
         <v>13.8</v>
@@ -4021,19 +4021,19 @@
         <v>-1.016666666666666</v>
       </c>
       <c r="D49">
-        <v>14.38333333333333</v>
+        <v>9.763333333333334</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>15.4</v>
+        <v>10.78</v>
       </c>
       <c r="G49">
         <v>19.8</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>70.00757256120342</v>
@@ -4053,13 +4053,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D50">
-        <v>12.38333333333333</v>
+        <v>13.30333333333333</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>13.6</v>
+        <v>14.52</v>
       </c>
       <c r="G50">
         <v>4</v>
@@ -4117,13 +4117,13 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D52">
-        <v>18.43333333333333</v>
+        <v>14.03833333333333</v>
       </c>
       <c r="E52">
         <v>0.1084260115380744</v>
       </c>
       <c r="F52">
-        <v>14.65</v>
+        <v>10.255</v>
       </c>
       <c r="G52">
         <v>23.7</v>
@@ -4341,13 +4341,13 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D59">
-        <v>14.13333333333333</v>
+        <v>15.54833333333333</v>
       </c>
       <c r="E59">
         <v>0.05227125103870944</v>
       </c>
       <c r="F59">
-        <v>11.95</v>
+        <v>13.365</v>
       </c>
       <c r="G59">
         <v>11.9</v>
@@ -4373,13 +4373,13 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D60">
-        <v>19.83333333333333</v>
+        <v>16.96833333333333</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>19.55</v>
+        <v>16.685</v>
       </c>
       <c r="G60">
         <v>8</v>
@@ -4626,13 +4626,13 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D68">
-        <v>17.19166666666667</v>
+        <v>12.36166666666667</v>
       </c>
       <c r="E68">
         <v>0.03942836649889116</v>
       </c>
       <c r="F68">
-        <v>16.1</v>
+        <v>11.27</v>
       </c>
       <c r="G68">
         <v>12.5</v>
@@ -5042,13 +5042,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D81">
-        <v>15.19166666666667</v>
+        <v>10.78166666666667</v>
       </c>
       <c r="E81">
         <v>0.09889337204815538</v>
       </c>
       <c r="F81">
-        <v>14.7</v>
+        <v>10.29</v>
       </c>
       <c r="G81">
         <v>21.2</v>
@@ -5202,13 +5202,13 @@
         <v>-4.416666666666668</v>
       </c>
       <c r="D86">
-        <v>13.78333333333333</v>
+        <v>8.323333333333331</v>
       </c>
       <c r="E86">
         <v>0.1495777660794771</v>
       </c>
       <c r="F86">
-        <v>18.2</v>
+        <v>12.74</v>
       </c>
       <c r="G86">
         <v>19.8</v>
@@ -5455,13 +5455,13 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D94">
-        <v>12.03333333333333</v>
+        <v>17.75833333333333</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>14.25</v>
+        <v>19.975</v>
       </c>
       <c r="G94">
         <v>16.9</v>
@@ -5647,13 +5647,13 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D100">
-        <v>15.04166666666667</v>
+        <v>10.96166666666667</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>13.6</v>
+        <v>9.52</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -5862,13 +5862,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D107">
-        <v>14.47833333333333</v>
+        <v>10.09833333333333</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>14.6</v>
+        <v>10.22</v>
       </c>
       <c r="G107">
         <v>14.6</v>
@@ -5894,13 +5894,13 @@
         <v>-4.716666666666669</v>
       </c>
       <c r="D108">
-        <v>9.578333333333333</v>
+        <v>6.563333333333333</v>
       </c>
       <c r="E108">
         <v>0.2205549152518229</v>
       </c>
       <c r="F108">
-        <v>10.05</v>
+        <v>7.035</v>
       </c>
       <c r="G108">
         <v>9.5</v>
@@ -6246,13 +6246,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D119">
-        <v>12.49166666666667</v>
+        <v>8.561666666666666</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>13.1</v>
+        <v>9.17</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -6400,13 +6400,13 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D124">
-        <v>10.68333333333333</v>
+        <v>8.133333333333333</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>8.5</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -6429,13 +6429,13 @@
         <v>6.783333333333331</v>
       </c>
       <c r="D125">
-        <v>9.178333333333333</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>21.8</v>
       </c>
       <c r="H127">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I127">
         <v>61.15328410299084</v>
@@ -6932,13 +6932,13 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D141">
-        <v>3.533333333333331</v>
+        <v>1.208333333333331</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>7.75</v>
+        <v>5.425</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -7121,13 +7121,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D147">
-        <v>5.883333333333335</v>
+        <v>4.413333333333334</v>
       </c>
       <c r="E147">
         <v>0.06899582354382985</v>
       </c>
       <c r="F147">
-        <v>4.9</v>
+        <v>3.43</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I149">
         <v>81.08225541231802</v>
@@ -7900,13 +7900,13 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D172">
-        <v>7.383333333333333</v>
+        <v>8.283333333333331</v>
       </c>
       <c r="E172">
         <v>0.01972984935663803</v>
       </c>
       <c r="F172">
-        <v>7</v>
+        <v>7.899999999999999</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -8563,13 +8563,13 @@
         <v>-4.716666666666669</v>
       </c>
       <c r="D193">
-        <v>3.883333333333331</v>
+        <v>1.303333333333331</v>
       </c>
       <c r="E193">
         <v>0.2190562483957393</v>
       </c>
       <c r="F193">
-        <v>8.6</v>
+        <v>6.02</v>
       </c>
       <c r="G193">
         <v>2.3</v>
@@ -9104,13 +9104,13 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D210">
-        <v>7.238333333333332</v>
+        <v>5.153333333333332</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
-        <v>6.949999999999999</v>
+        <v>4.864999999999999</v>
       </c>
       <c r="G210">
         <v>4.7</v>
@@ -9610,13 +9610,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D226">
-        <v>7.398333333333333</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="E226">
         <v>0.0230788442463741</v>
       </c>
       <c r="F226">
-        <v>7.3</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -10081,13 +10081,13 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D241">
-        <v>0.9833333333333336</v>
+        <v>0</v>
       </c>
       <c r="E241">
         <v>0</v>
       </c>
       <c r="F241">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>4</v>
@@ -10299,13 +10299,13 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D248">
-        <v>2.768333333333333</v>
+        <v>2.078333333333333</v>
       </c>
       <c r="E248">
         <v>0</v>
       </c>
       <c r="F248">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="G248">
         <v>2.2</v>
@@ -10360,13 +10360,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D250">
-        <v>4.033333333333331</v>
+        <v>5.458333333333331</v>
       </c>
       <c r="E250">
         <v>0</v>
       </c>
       <c r="F250">
-        <v>5.25</v>
+        <v>6.675</v>
       </c>
       <c r="H250">
         <v>2</v>
@@ -10389,13 +10389,13 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D251">
-        <v>5.983333333333331</v>
+        <v>5.323333333333331</v>
       </c>
       <c r="E251">
         <v>0</v>
       </c>
       <c r="F251">
-        <v>12.2</v>
+        <v>11.54</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -10540,13 +10540,13 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D256">
-        <v>16.68333333333333</v>
+        <v>14.04333333333333</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
       <c r="F256">
-        <v>13.8</v>
+        <v>11.16</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -10569,13 +10569,13 @@
         <v>6.783333333333331</v>
       </c>
       <c r="D257">
-        <v>12.48333333333333</v>
+        <v>0</v>
       </c>
       <c r="E257">
         <v>0.2545377629843644</v>
       </c>
       <c r="F257">
-        <v>5.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G257">
         <v>4.4</v>
@@ -10822,13 +10822,13 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D265">
-        <v>7.933333333333332</v>
+        <v>6.538333333333331</v>
       </c>
       <c r="E265">
         <v>0.02680257055041772</v>
       </c>
       <c r="F265">
-        <v>4.65</v>
+        <v>3.255</v>
       </c>
       <c r="G265">
         <v>4</v>
@@ -11450,13 +11450,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D285">
-        <v>12.88333333333333</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>0.07472803223012027</v>
       </c>
       <c r="F285">
-        <v>14.9</v>
+        <v>10</v>
       </c>
       <c r="G285">
         <v>20.1</v>
@@ -11700,13 +11700,13 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D293">
-        <v>6.533333333333333</v>
+        <v>5.528333333333333</v>
       </c>
       <c r="E293">
         <v>1</v>
       </c>
       <c r="F293">
-        <v>6.35</v>
+        <v>5.345</v>
       </c>
       <c r="G293">
         <v>7.6</v>
@@ -12145,13 +12145,13 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D307">
-        <v>8.816666666666666</v>
+        <v>7.306666666666665</v>
       </c>
       <c r="E307">
         <v>0.1767819996025005</v>
       </c>
       <c r="F307">
-        <v>15.03333333333333</v>
+        <v>13.52333333333333</v>
       </c>
       <c r="G307">
         <v>3.5</v>
@@ -12392,13 +12392,13 @@
         <v>-0.2166666666666686</v>
       </c>
       <c r="D315">
-        <v>0.7833333333333314</v>
+        <v>0.4833333333333314</v>
       </c>
       <c r="E315">
         <v>0.388454008368776</v>
       </c>
       <c r="F315">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H315">
         <v>5</v>
@@ -12546,13 +12546,13 @@
         <v>-1.316666666666666</v>
       </c>
       <c r="D320">
-        <v>1.683333333333334</v>
+        <v>0</v>
       </c>
       <c r="E320">
         <v>0</v>
       </c>
       <c r="F320">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -12790,13 +12790,13 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D328">
-        <v>2.083333333333334</v>
+        <v>1.453333333333334</v>
       </c>
       <c r="E328">
         <v>0</v>
       </c>
       <c r="F328">
-        <v>5.1</v>
+        <v>4.47</v>
       </c>
       <c r="H328">
         <v>2</v>
@@ -13194,13 +13194,13 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D341">
-        <v>11.86666666666667</v>
+        <v>9.924166666666665</v>
       </c>
       <c r="E341">
         <v>0</v>
       </c>
       <c r="F341">
-        <v>11.475</v>
+        <v>9.532499999999999</v>
       </c>
       <c r="G341">
         <v>8.5</v>
@@ -13822,13 +13822,13 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D361">
-        <v>-2.216666666666669</v>
+        <v>-2.816666666666669</v>
       </c>
       <c r="E361">
         <v>0.1850200011094602</v>
       </c>
       <c r="F361">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H361">
         <v>3</v>
@@ -15918,13 +15918,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D428">
-        <v>6.141666666666666</v>
+        <v>5.616666666666665</v>
       </c>
       <c r="E428">
         <v>0</v>
       </c>
       <c r="F428">
-        <v>6.75</v>
+        <v>6.225</v>
       </c>
       <c r="G428">
         <v>9.199999999999999</v>
@@ -16107,13 +16107,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D434">
-        <v>0.6316666666666668</v>
+        <v>0.4716666666666667</v>
       </c>
       <c r="E434">
         <v>0.2667013724260702</v>
       </c>
       <c r="F434">
-        <v>0.5333333333333333</v>
+        <v>0.3733333333333333</v>
       </c>
       <c r="G434">
         <v>1.8</v>
@@ -17162,19 +17162,19 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D468">
-        <v>1.924999999999999</v>
+        <v>6.924999999999999</v>
       </c>
       <c r="E468">
         <v>0</v>
       </c>
       <c r="F468">
-        <v>0.03333333333333333</v>
+        <v>5.033333333333333</v>
       </c>
       <c r="G468">
         <v>10</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468">
         <v>0</v>
@@ -18031,7 +18031,7 @@
         <v>-0.3166666666666664</v>
       </c>
       <c r="D496">
-        <v>-0.3166666666666664</v>
+        <v>0</v>
       </c>
       <c r="E496">
         <v>0</v>
@@ -18899,13 +18899,13 @@
         <v>-1.316666666666666</v>
       </c>
       <c r="D525">
-        <v>-4.216666666666667</v>
+        <v>-4.246666666666666</v>
       </c>
       <c r="E525">
         <v>1</v>
       </c>
       <c r="F525">
-        <v>0.1</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="G525">
         <v>0.2</v>
@@ -19457,13 +19457,13 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D543">
-        <v>1.283333333333332</v>
+        <v>0.9233333333333321</v>
       </c>
       <c r="E543">
         <v>0.3462543720190779</v>
       </c>
       <c r="F543">
-        <v>1.2</v>
+        <v>0.84</v>
       </c>
       <c r="H543">
         <v>6</v>
@@ -20702,7 +20702,7 @@
         <v>6.783333333333331</v>
       </c>
       <c r="D585">
-        <v>6.783333333333331</v>
+        <v>0</v>
       </c>
       <c r="E585">
         <v>0.5127543720190779</v>
@@ -20798,7 +20798,7 @@
         <v>0</v>
       </c>
       <c r="H588">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I588">
         <v>0</v>
@@ -21050,7 +21050,7 @@
         <v>0</v>
       </c>
       <c r="H597">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I597">
         <v>0</v>
@@ -21082,7 +21082,7 @@
         <v>0</v>
       </c>
       <c r="H598">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I598">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="H651">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I651">
         <v>0</v>
@@ -22802,7 +22802,7 @@
         <v>0</v>
       </c>
       <c r="H660">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I660">
         <v>0</v>
@@ -22874,7 +22874,7 @@
         <v>-0.3166666666666664</v>
       </c>
       <c r="D663">
-        <v>-0.1583333333333332</v>
+        <v>0</v>
       </c>
       <c r="E663">
         <v>0.323754372019078</v>
@@ -23268,7 +23268,7 @@
         <v>0</v>
       </c>
       <c r="H677">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I677">
         <v>0</v>
@@ -23288,13 +23288,13 @@
         <v>-0.2166666666666686</v>
       </c>
       <c r="D678">
-        <v>-5.216666666666669</v>
+        <v>-4.616666666666669</v>
       </c>
       <c r="E678">
         <v>0</v>
       </c>
       <c r="F678">
-        <v>-2</v>
+        <v>-1.4</v>
       </c>
       <c r="H678">
         <v>3</v>

--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -2753,7 +2753,7 @@
         <v>0.134477819225322</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>22.35</v>
       </c>
       <c r="G9">
         <v>4.5</v>
@@ -3131,13 +3131,13 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D21">
-        <v>11.01333333333333</v>
+        <v>11.04833333333333</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.13</v>
+        <v>15.9</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>0.09052005076770928</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="G22">
         <v>17.5</v>
@@ -3256,13 +3256,13 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D25">
-        <v>7.413333333333334</v>
+        <v>8.318333333333333</v>
       </c>
       <c r="E25">
         <v>0.08190262794701228</v>
       </c>
       <c r="F25">
-        <v>10.43</v>
+        <v>14.9</v>
       </c>
       <c r="G25">
         <v>26.6</v>
@@ -3384,13 +3384,13 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D29">
-        <v>11.83833333333333</v>
+        <v>11.78333333333333</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>11.655</v>
+        <v>16.65</v>
       </c>
       <c r="G29">
         <v>17</v>
@@ -3512,13 +3512,13 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D33">
-        <v>7.988333333333333</v>
+        <v>8.773333333333333</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>10.605</v>
+        <v>15.15</v>
       </c>
       <c r="G33">
         <v>32.5</v>
@@ -3768,13 +3768,13 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D41">
-        <v>14.28833333333333</v>
+        <v>9.263333333333332</v>
       </c>
       <c r="E41">
         <v>0.04453406709035423</v>
       </c>
       <c r="F41">
-        <v>14.205</v>
+        <v>13.15</v>
       </c>
       <c r="G41">
         <v>10.9</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="H42">
         <v>4</v>
@@ -3829,13 +3829,13 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D43">
-        <v>15.54833333333333</v>
+        <v>10.31333333333333</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>14.765</v>
+        <v>13.95</v>
       </c>
       <c r="G43">
         <v>13.8</v>
@@ -4021,13 +4021,13 @@
         <v>-1.016666666666666</v>
       </c>
       <c r="D49">
-        <v>9.763333333333334</v>
+        <v>10.06833333333333</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>10.78</v>
+        <v>15.4</v>
       </c>
       <c r="G49">
         <v>19.8</v>
@@ -4053,13 +4053,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D50">
-        <v>13.30333333333333</v>
+        <v>8.668333333333333</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>14.52</v>
+        <v>13.6</v>
       </c>
       <c r="G50">
         <v>4</v>
@@ -4117,13 +4117,13 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D52">
-        <v>14.03833333333333</v>
+        <v>12.90333333333333</v>
       </c>
       <c r="E52">
         <v>0.1084260115380744</v>
       </c>
       <c r="F52">
-        <v>10.255</v>
+        <v>14.65</v>
       </c>
       <c r="G52">
         <v>23.7</v>
@@ -4341,13 +4341,13 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D59">
-        <v>15.54833333333333</v>
+        <v>9.893333333333333</v>
       </c>
       <c r="E59">
         <v>0.05227125103870944</v>
       </c>
       <c r="F59">
-        <v>13.365</v>
+        <v>11.95</v>
       </c>
       <c r="G59">
         <v>11.9</v>
@@ -4373,13 +4373,13 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D60">
-        <v>16.96833333333333</v>
+        <v>13.88333333333333</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>16.685</v>
+        <v>19.55</v>
       </c>
       <c r="G60">
         <v>8</v>
@@ -4626,13 +4626,13 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D68">
-        <v>12.36166666666667</v>
+        <v>12.03416666666667</v>
       </c>
       <c r="E68">
         <v>0.03942836649889116</v>
       </c>
       <c r="F68">
-        <v>11.27</v>
+        <v>16.1</v>
       </c>
       <c r="G68">
         <v>12.5</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="G73">
         <v>13.9</v>
@@ -5042,13 +5042,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D81">
-        <v>10.78166666666667</v>
+        <v>10.63416666666667</v>
       </c>
       <c r="E81">
         <v>0.09889337204815538</v>
       </c>
       <c r="F81">
-        <v>10.29</v>
+        <v>14.7</v>
       </c>
       <c r="G81">
         <v>21.2</v>
@@ -5202,13 +5202,13 @@
         <v>-4.416666666666668</v>
       </c>
       <c r="D86">
-        <v>8.323333333333331</v>
+        <v>9.648333333333332</v>
       </c>
       <c r="E86">
         <v>0.1495777660794771</v>
       </c>
       <c r="F86">
-        <v>12.74</v>
+        <v>18.2</v>
       </c>
       <c r="G86">
         <v>19.8</v>
@@ -5432,7 +5432,7 @@
         <v>0.02357347775746576</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -5455,13 +5455,13 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D94">
-        <v>17.75833333333333</v>
+        <v>8.423333333333332</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>19.975</v>
+        <v>14.25</v>
       </c>
       <c r="G94">
         <v>16.9</v>
@@ -5647,13 +5647,13 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D100">
-        <v>10.96166666666667</v>
+        <v>10.52916666666667</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>9.52</v>
+        <v>13.6</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -5862,13 +5862,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D107">
-        <v>10.09833333333333</v>
+        <v>10.13483333333333</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>10.22</v>
+        <v>14.6</v>
       </c>
       <c r="G107">
         <v>14.6</v>
@@ -5894,13 +5894,13 @@
         <v>-4.716666666666669</v>
       </c>
       <c r="D108">
-        <v>6.563333333333333</v>
+        <v>6.704833333333333</v>
       </c>
       <c r="E108">
         <v>0.2205549152518229</v>
       </c>
       <c r="F108">
-        <v>7.035</v>
+        <v>10.05</v>
       </c>
       <c r="G108">
         <v>9.5</v>
@@ -6246,13 +6246,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D119">
-        <v>8.561666666666666</v>
+        <v>8.744166666666665</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>9.17</v>
+        <v>13.1</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -6400,13 +6400,13 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D124">
-        <v>8.133333333333333</v>
+        <v>7.478333333333333</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>5.949999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="G127">
         <v>21.8</v>
@@ -6592,7 +6592,7 @@
         <v>0.1810524274362956</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>8.366666666666667</v>
       </c>
       <c r="H130">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -6842,7 +6842,7 @@
         <v>0.1688393581123628</v>
       </c>
       <c r="F138">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -6932,13 +6932,13 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D141">
-        <v>1.208333333333331</v>
+        <v>2.473333333333332</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>5.425</v>
+        <v>7.75</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -7066,7 +7066,7 @@
         <v>0.0823321552502755</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>11.03333333333333</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -7121,13 +7121,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D147">
-        <v>4.413333333333334</v>
+        <v>4.118333333333334</v>
       </c>
       <c r="E147">
         <v>0.06899582354382985</v>
       </c>
       <c r="F147">
-        <v>3.43</v>
+        <v>4.9</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -7188,7 +7188,7 @@
         <v>0.004466535215012953</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="H149">
         <v>6</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H162">
         <v>5</v>
@@ -7900,13 +7900,13 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D172">
-        <v>8.283333333333331</v>
+        <v>5.168333333333333</v>
       </c>
       <c r="E172">
         <v>0.01972984935663803</v>
       </c>
       <c r="F172">
-        <v>7.899999999999999</v>
+        <v>7</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -8563,13 +8563,13 @@
         <v>-4.716666666666669</v>
       </c>
       <c r="D193">
-        <v>1.303333333333331</v>
+        <v>2.718333333333331</v>
       </c>
       <c r="E193">
         <v>0.2190562483957393</v>
       </c>
       <c r="F193">
-        <v>6.02</v>
+        <v>8.6</v>
       </c>
       <c r="G193">
         <v>2.3</v>
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>9.725</v>
       </c>
       <c r="H195">
         <v>4</v>
@@ -9104,13 +9104,13 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D210">
-        <v>5.153333333333332</v>
+        <v>5.066833333333332</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
-        <v>4.864999999999999</v>
+        <v>6.949999999999999</v>
       </c>
       <c r="G210">
         <v>4.7</v>
@@ -9302,7 +9302,7 @@
         <v>0.1255773286593687</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>6.875</v>
       </c>
       <c r="H216">
         <v>4</v>
@@ -9610,13 +9610,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D226">
-        <v>5.208333333333333</v>
+        <v>5.178833333333333</v>
       </c>
       <c r="E226">
         <v>0.0230788442463741</v>
       </c>
       <c r="F226">
-        <v>5.109999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H230">
         <v>4</v>
@@ -10026,7 +10026,7 @@
         <v>0.2554011828532054</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="H239">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H241">
         <v>4</v>
@@ -10276,7 +10276,7 @@
         <v>0.1889141399616307</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="H247">
         <v>4</v>
@@ -10299,13 +10299,13 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D248">
-        <v>2.078333333333333</v>
+        <v>1.937833333333333</v>
       </c>
       <c r="E248">
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.61</v>
+        <v>2.3</v>
       </c>
       <c r="G248">
         <v>2.2</v>
@@ -10360,13 +10360,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D250">
-        <v>5.458333333333331</v>
+        <v>2.823333333333332</v>
       </c>
       <c r="E250">
         <v>0</v>
       </c>
       <c r="F250">
-        <v>6.675</v>
+        <v>5.25</v>
       </c>
       <c r="H250">
         <v>2</v>
@@ -10389,13 +10389,13 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D251">
-        <v>5.323333333333331</v>
+        <v>4.188333333333332</v>
       </c>
       <c r="E251">
         <v>0</v>
       </c>
       <c r="F251">
-        <v>11.54</v>
+        <v>12.2</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -10424,7 +10424,7 @@
         <v>0.06950437201907794</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>13.45</v>
       </c>
       <c r="H252">
         <v>8</v>
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="H253">
         <v>4</v>
@@ -10540,13 +10540,13 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D256">
-        <v>14.04333333333333</v>
+        <v>11.67833333333333</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
       <c r="F256">
-        <v>11.16</v>
+        <v>13.8</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -10575,7 +10575,7 @@
         <v>0.2545377629843644</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G257">
         <v>4.4</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H261">
         <v>6</v>
@@ -10822,13 +10822,13 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D265">
-        <v>6.538333333333331</v>
+        <v>5.553333333333332</v>
       </c>
       <c r="E265">
         <v>0.02680257055041772</v>
       </c>
       <c r="F265">
-        <v>3.255</v>
+        <v>4.65</v>
       </c>
       <c r="G265">
         <v>4</v>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>6.066666666666667</v>
       </c>
       <c r="H274">
         <v>6</v>
@@ -11174,7 +11174,7 @@
         <v>0</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="H276">
         <v>4</v>
@@ -11456,7 +11456,7 @@
         <v>0.07472803223012027</v>
       </c>
       <c r="F285">
-        <v>10</v>
+        <v>14.9</v>
       </c>
       <c r="G285">
         <v>20.1</v>
@@ -11520,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H287">
         <v>4</v>
@@ -11613,7 +11613,7 @@
         <v>0.3311925295920414</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H290">
         <v>6</v>
@@ -11700,13 +11700,13 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D293">
-        <v>5.528333333333333</v>
+        <v>4.573333333333333</v>
       </c>
       <c r="E293">
         <v>1</v>
       </c>
       <c r="F293">
-        <v>5.345</v>
+        <v>6.35</v>
       </c>
       <c r="G293">
         <v>7.6</v>
@@ -12145,13 +12145,13 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D307">
-        <v>7.306666666666665</v>
+        <v>6.171666666666666</v>
       </c>
       <c r="E307">
         <v>0.1767819996025005</v>
       </c>
       <c r="F307">
-        <v>13.52333333333333</v>
+        <v>15.03333333333333</v>
       </c>
       <c r="G307">
         <v>3.5</v>
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H308">
         <v>5</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H309">
         <v>6</v>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H311">
         <v>7</v>
@@ -12392,13 +12392,13 @@
         <v>-0.2166666666666686</v>
       </c>
       <c r="D315">
-        <v>0.4833333333333314</v>
+        <v>0.548333333333332</v>
       </c>
       <c r="E315">
         <v>0.388454008368776</v>
       </c>
       <c r="F315">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H315">
         <v>5</v>
@@ -12459,7 +12459,7 @@
         <v>0.1083078098787727</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H317">
         <v>4</v>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>10.36666666666667</v>
       </c>
       <c r="H324">
         <v>4</v>
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H327">
         <v>5</v>
@@ -12790,13 +12790,13 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D328">
-        <v>1.453333333333334</v>
+        <v>1.458333333333334</v>
       </c>
       <c r="E328">
         <v>0</v>
       </c>
       <c r="F328">
-        <v>4.47</v>
+        <v>5.1</v>
       </c>
       <c r="H328">
         <v>2</v>
@@ -13194,13 +13194,13 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D341">
-        <v>9.924166666666665</v>
+        <v>8.306666666666667</v>
       </c>
       <c r="E341">
         <v>0</v>
       </c>
       <c r="F341">
-        <v>9.532499999999999</v>
+        <v>11.475</v>
       </c>
       <c r="G341">
         <v>8.5</v>
@@ -13822,13 +13822,13 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D361">
-        <v>-2.816666666666669</v>
+        <v>-1.551666666666668</v>
       </c>
       <c r="E361">
         <v>0.1850200011094602</v>
       </c>
       <c r="F361">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H361">
         <v>3</v>
@@ -13941,7 +13941,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D365">
-        <v>0.09833333333333344</v>
+        <v>0.0688333333333334</v>
       </c>
       <c r="E365">
         <v>0.1078251918871233</v>
@@ -14267,7 +14267,7 @@
         <v>0</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H375">
         <v>6</v>
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="F380">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H380">
         <v>3</v>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="F385">
-        <v>0</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="H385">
         <v>5</v>
@@ -14659,7 +14659,7 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D388">
-        <v>0.08333333333333215</v>
+        <v>0.0583333333333325</v>
       </c>
       <c r="E388">
         <v>0.1635382438777376</v>
@@ -14694,7 +14694,7 @@
         <v>0</v>
       </c>
       <c r="F389">
-        <v>0</v>
+        <v>3.766666666666667</v>
       </c>
       <c r="H389">
         <v>7</v>
@@ -15895,7 +15895,7 @@
         <v>0.03499112212082599</v>
       </c>
       <c r="F427">
-        <v>0</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="H427">
         <v>6</v>
@@ -15918,13 +15918,13 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D428">
-        <v>5.616666666666665</v>
+        <v>4.299166666666665</v>
       </c>
       <c r="E428">
         <v>0</v>
       </c>
       <c r="F428">
-        <v>6.225</v>
+        <v>6.75</v>
       </c>
       <c r="G428">
         <v>9.199999999999999</v>
@@ -16107,13 +16107,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D434">
-        <v>0.4716666666666667</v>
+        <v>0.4421666666666668</v>
       </c>
       <c r="E434">
         <v>0.2667013724260702</v>
       </c>
       <c r="F434">
-        <v>0.3733333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G434">
         <v>1.8</v>
@@ -16267,7 +16267,7 @@
         <v>0.1519623045503404</v>
       </c>
       <c r="F439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H439">
         <v>8</v>
@@ -16784,7 +16784,7 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D456">
-        <v>3.283333333333331</v>
+        <v>2.298333333333332</v>
       </c>
       <c r="E456">
         <v>0.1414269924601725</v>
@@ -17851,7 +17851,7 @@
         <v>0.2945043720190779</v>
       </c>
       <c r="F490">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H490">
         <v>8</v>
@@ -17880,7 +17880,7 @@
         <v>0.540417792621227</v>
       </c>
       <c r="F491">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H491">
         <v>5</v>
@@ -17935,7 +17935,7 @@
         <v>-4.716666666666669</v>
       </c>
       <c r="D493">
-        <v>-0.4716666666666669</v>
+        <v>-0.3301666666666668</v>
       </c>
       <c r="E493">
         <v>0.5352543720190779</v>
@@ -18182,7 +18182,7 @@
         <v>0.323754372019078</v>
       </c>
       <c r="F501">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H501">
         <v>4</v>
@@ -18327,7 +18327,7 @@
         <v>-4.416666666666668</v>
       </c>
       <c r="D506">
-        <v>-4.416666666666668</v>
+        <v>-3.091666666666667</v>
       </c>
       <c r="E506">
         <v>0</v>
@@ -18481,7 +18481,7 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D511">
-        <v>0.7833333333333314</v>
+        <v>0.548333333333332</v>
       </c>
       <c r="E511">
         <v>0.5586310761771155</v>
@@ -18579,9 +18579,6 @@
       <c r="E514">
         <v>0</v>
       </c>
-      <c r="F514">
-        <v>0</v>
-      </c>
       <c r="H514">
         <v>5</v>
       </c>
@@ -18844,7 +18841,7 @@
         <v>0.3919343467638652</v>
       </c>
       <c r="F523">
-        <v>0</v>
+        <v>0.325</v>
       </c>
       <c r="H523">
         <v>1</v>
@@ -18899,13 +18896,13 @@
         <v>-1.316666666666666</v>
       </c>
       <c r="D525">
-        <v>-4.246666666666666</v>
+        <v>-2.951666666666667</v>
       </c>
       <c r="E525">
         <v>1</v>
       </c>
       <c r="F525">
-        <v>0.06999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G525">
         <v>0.2</v>
@@ -19129,7 +19126,7 @@
         <v>0.3462543720190779</v>
       </c>
       <c r="F532">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H532">
         <v>5</v>
@@ -19248,7 +19245,7 @@
         <v>0.368754372019078</v>
       </c>
       <c r="F536">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H536">
         <v>8</v>
@@ -19457,13 +19454,13 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D543">
-        <v>0.9233333333333321</v>
+        <v>0.8983333333333324</v>
       </c>
       <c r="E543">
         <v>0.3462543720190779</v>
       </c>
       <c r="F543">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="H543">
         <v>6</v>
@@ -19851,9 +19848,6 @@
       <c r="E556">
         <v>0</v>
       </c>
-      <c r="F556">
-        <v>0</v>
-      </c>
       <c r="H556">
         <v>4</v>
       </c>
@@ -20000,7 +19994,7 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D561">
-        <v>0.008333333333333215</v>
+        <v>0.00583333333333325</v>
       </c>
       <c r="E561">
         <v>0</v>
@@ -21646,9 +21640,6 @@
       <c r="E618">
         <v>0</v>
       </c>
-      <c r="F618">
-        <v>0</v>
-      </c>
       <c r="H618">
         <v>7</v>
       </c>
@@ -22636,9 +22627,6 @@
       <c r="E654">
         <v>0</v>
       </c>
-      <c r="F654">
-        <v>0</v>
-      </c>
       <c r="H654">
         <v>4</v>
       </c>
@@ -22989,9 +22977,6 @@
       <c r="E667">
         <v>0</v>
       </c>
-      <c r="F667">
-        <v>0</v>
-      </c>
       <c r="H667">
         <v>4</v>
       </c>
@@ -23288,13 +23273,13 @@
         <v>-0.2166666666666686</v>
       </c>
       <c r="D678">
-        <v>-4.616666666666669</v>
+        <v>-3.651666666666668</v>
       </c>
       <c r="E678">
         <v>0</v>
       </c>
       <c r="F678">
-        <v>-1.4</v>
+        <v>-2</v>
       </c>
       <c r="H678">
         <v>3</v>

--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="505">
   <si>
     <t>Player</t>
   </si>
@@ -1982,7 +1982,7 @@
         <v>11.9</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>2.37269983586772</v>
@@ -3295,7 +3295,7 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D46">
-        <v>0.8983333333333324</v>
+        <v>1.283333333333332</v>
       </c>
       <c r="E46">
         <v>0.3171683673469392</v>
@@ -3308,9 +3308,6 @@
       </c>
       <c r="I46">
         <v>50</v>
-      </c>
-      <c r="J46" t="s">
-        <v>499</v>
       </c>
       <c r="K46" t="s">
         <v>502</v>
@@ -3641,7 +3638,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D57">
-        <v>2.823333333333332</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3656,7 +3653,7 @@
         <v>39.20669384602557</v>
       </c>
       <c r="J57" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K57" t="s">
         <v>502</v>
@@ -3830,7 +3827,7 @@
         <v>-4.716666666666669</v>
       </c>
       <c r="D63">
-        <v>-0.3301666666666668</v>
+        <v>-0.4716666666666669</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3846,9 +3843,6 @@
       </c>
       <c r="I63">
         <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>499</v>
       </c>
       <c r="K63" t="s">
         <v>501</v>
@@ -3865,7 +3859,7 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D64">
-        <v>8.306666666666667</v>
+        <v>11.86666666666667</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3881,9 +3875,6 @@
       </c>
       <c r="I64">
         <v>44.42884990790521</v>
-      </c>
-      <c r="J64" t="s">
-        <v>499</v>
       </c>
       <c r="K64" t="s">
         <v>502</v>
@@ -5095,19 +5086,19 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D103">
-        <v>3.383333333333335</v>
+        <v>0.3833333333333342</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="G103">
         <v>2.4</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>68.97555722006733</v>
@@ -6386,7 +6377,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D144">
-        <v>4.573333333333333</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6404,7 +6395,7 @@
         <v>57.24852218404764</v>
       </c>
       <c r="J144" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K144" t="s">
         <v>502</v>
@@ -6517,7 +6508,7 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D148">
-        <v>1.937833333333333</v>
+        <v>2.768333333333333</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -6533,9 +6524,6 @@
       </c>
       <c r="I148">
         <v>36.05902414618579</v>
-      </c>
-      <c r="J148" t="s">
-        <v>499</v>
       </c>
       <c r="K148" t="s">
         <v>502</v>
@@ -7314,13 +7302,13 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>14.9</v>
+        <v>7.9</v>
       </c>
       <c r="G173">
         <v>20.1</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>65.9168517935056</v>
@@ -9545,7 +9533,7 @@
         <v>7</v>
       </c>
       <c r="H243">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I243">
         <v>71.38329894607209</v>
@@ -9757,7 +9745,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D250">
-        <v>5.066833333333332</v>
+        <v>7.238333333333332</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -9773,9 +9761,6 @@
       </c>
       <c r="I250">
         <v>73.53859346450653</v>
-      </c>
-      <c r="J250" t="s">
-        <v>499</v>
       </c>
       <c r="K250" t="s">
         <v>503</v>
@@ -9949,7 +9934,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D256">
-        <v>4.118333333333334</v>
+        <v>5.883333333333335</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9962,9 +9947,6 @@
       </c>
       <c r="I256">
         <v>47.02244104351107</v>
-      </c>
-      <c r="J256" t="s">
-        <v>499</v>
       </c>
       <c r="K256" t="s">
         <v>502</v>
@@ -11165,7 +11147,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D294">
-        <v>10.13483333333333</v>
+        <v>0</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -11183,7 +11165,7 @@
         <v>67.85083777370846</v>
       </c>
       <c r="J294" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K294" t="s">
         <v>503</v>
@@ -11232,7 +11214,7 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D296">
-        <v>8.423333333333332</v>
+        <v>12.03333333333333</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -11248,9 +11230,6 @@
       </c>
       <c r="I296">
         <v>71.63165824563542</v>
-      </c>
-      <c r="J296" t="s">
-        <v>499</v>
       </c>
       <c r="K296" t="s">
         <v>503</v>
@@ -12006,7 +11985,7 @@
         <v>-4.716666666666669</v>
       </c>
       <c r="D320">
-        <v>6.704833333333333</v>
+        <v>9.578333333333333</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -12022,9 +12001,6 @@
       </c>
       <c r="I320">
         <v>67.23399481985007</v>
-      </c>
-      <c r="J320" t="s">
-        <v>499</v>
       </c>
       <c r="K320" t="s">
         <v>503</v>
@@ -12425,7 +12401,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D333">
-        <v>9.941666666666668</v>
+        <v>6.959166666666667</v>
       </c>
       <c r="E333">
         <v>0.4911683673469388</v>
@@ -12438,6 +12414,9 @@
       </c>
       <c r="I333">
         <v>50.25510204081633</v>
+      </c>
+      <c r="J333" t="s">
+        <v>499</v>
       </c>
       <c r="K333" t="s">
         <v>502</v>
@@ -13882,7 +13861,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D379">
-        <v>8.668333333333333</v>
+        <v>12.38333333333333</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -13898,9 +13877,6 @@
       </c>
       <c r="I379">
         <v>63.10324824611915</v>
-      </c>
-      <c r="J379" t="s">
-        <v>499</v>
       </c>
       <c r="K379" t="s">
         <v>503</v>
@@ -14682,7 +14658,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D404">
-        <v>10.52916666666667</v>
+        <v>0</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -14697,7 +14673,7 @@
         <v>86.69224267607653</v>
       </c>
       <c r="J404" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K404" t="s">
         <v>504</v>
@@ -15395,7 +15371,7 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D426">
-        <v>12.90333333333333</v>
+        <v>18.43333333333333</v>
       </c>
       <c r="E426">
         <v>0</v>
@@ -15411,9 +15387,6 @@
       </c>
       <c r="I426">
         <v>70.04804826111994</v>
-      </c>
-      <c r="J426" t="s">
-        <v>499</v>
       </c>
       <c r="K426" t="s">
         <v>503</v>
@@ -15494,7 +15467,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>12.28333333333333</v>
       </c>
       <c r="E429">
         <v>0</v>
@@ -15510,9 +15483,6 @@
       </c>
       <c r="I429">
         <v>74.11667823054231</v>
-      </c>
-      <c r="J429" t="s">
-        <v>500</v>
       </c>
       <c r="K429" t="s">
         <v>503</v>
@@ -15529,7 +15499,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D430">
-        <v>11.78333333333333</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="E430">
         <v>1</v>
@@ -15545,9 +15515,6 @@
       </c>
       <c r="I430">
         <v>72.85107418813222</v>
-      </c>
-      <c r="J430" t="s">
-        <v>499</v>
       </c>
       <c r="K430" t="s">
         <v>503</v>
@@ -15724,7 +15691,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D436">
-        <v>11.04833333333333</v>
+        <v>0</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -15739,7 +15706,7 @@
         <v>84.3642111120603</v>
       </c>
       <c r="J436" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K436" t="s">
         <v>504</v>
@@ -15756,7 +15723,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D437">
-        <v>0</v>
+        <v>7.828333333333333</v>
       </c>
       <c r="E437">
         <v>0</v>
@@ -15765,13 +15732,13 @@
         <v>13.2</v>
       </c>
       <c r="H437">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I437">
         <v>74.42053915856026</v>
       </c>
       <c r="J437" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K437" t="s">
         <v>503</v>
@@ -15820,7 +15787,7 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D439">
-        <v>9.263333333333332</v>
+        <v>13.23333333333333</v>
       </c>
       <c r="E439">
         <v>0.01544806241821548</v>
@@ -15836,9 +15803,6 @@
       </c>
       <c r="I439">
         <v>76.47963735075068</v>
-      </c>
-      <c r="J439" t="s">
-        <v>499</v>
       </c>
       <c r="K439" t="s">
         <v>503</v>
@@ -16417,7 +16381,7 @@
         <v>4.5</v>
       </c>
       <c r="H457">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I457">
         <v>74.90475979550561</v>
@@ -16914,19 +16878,19 @@
         <v>-4.816666666666666</v>
       </c>
       <c r="D473">
-        <v>-1.816666666666666</v>
+        <v>-4.816666666666666</v>
       </c>
       <c r="E473">
         <v>0</v>
       </c>
       <c r="F473">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G473">
         <v>0</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I473">
         <v>0</v>

--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="505">
   <si>
     <t>Player</t>
   </si>
@@ -2862,7 +2862,7 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D32">
-        <v>4.188333333333332</v>
+        <v>5.983333333333331</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2875,9 +2875,6 @@
       </c>
       <c r="I32">
         <v>25.61607395541364</v>
-      </c>
-      <c r="J32" t="s">
-        <v>499</v>
       </c>
       <c r="K32" t="s">
         <v>502</v>
@@ -2984,7 +2981,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1.983333333333334</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2997,9 +2994,6 @@
       </c>
       <c r="I36">
         <v>39.87984824619684</v>
-      </c>
-      <c r="J36" t="s">
-        <v>500</v>
       </c>
       <c r="K36" t="s">
         <v>502</v>
@@ -3638,7 +3632,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4.033333333333331</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3651,9 +3645,6 @@
       </c>
       <c r="I57">
         <v>39.20669384602557</v>
-      </c>
-      <c r="J57" t="s">
-        <v>500</v>
       </c>
       <c r="K57" t="s">
         <v>502</v>
@@ -3731,7 +3722,7 @@
         <v>-1.316666666666666</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1.268333333333333</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3744,9 +3735,6 @@
       </c>
       <c r="I60">
         <v>59.65161496512077</v>
-      </c>
-      <c r="J60" t="s">
-        <v>500</v>
       </c>
       <c r="K60" t="s">
         <v>502</v>
@@ -4016,7 +4004,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D69">
-        <v>11.67833333333333</v>
+        <v>16.68333333333333</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4029,9 +4017,6 @@
       </c>
       <c r="I69">
         <v>59.51176264442746</v>
-      </c>
-      <c r="J69" t="s">
-        <v>499</v>
       </c>
       <c r="K69" t="s">
         <v>502</v>
@@ -4176,7 +4161,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D74">
-        <v>0.4421666666666668</v>
+        <v>0.6316666666666668</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4192,9 +4177,6 @@
       </c>
       <c r="I74">
         <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>499</v>
       </c>
       <c r="K74" t="s">
         <v>501</v>
@@ -4266,7 +4248,7 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-1.316666666666668</v>
       </c>
       <c r="E77">
         <v>0.3171683673469392</v>
@@ -4279,9 +4261,6 @@
       </c>
       <c r="I77">
         <v>94.11764705882352</v>
-      </c>
-      <c r="J77" t="s">
-        <v>500</v>
       </c>
       <c r="K77" t="s">
         <v>504</v>
@@ -4737,7 +4716,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>3.183333333333334</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4750,9 +4729,6 @@
       </c>
       <c r="I92">
         <v>36.17520834211906</v>
-      </c>
-      <c r="J92" t="s">
-        <v>500</v>
       </c>
       <c r="K92" t="s">
         <v>502</v>
@@ -4865,7 +4841,7 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>5.283333333333331</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4878,9 +4854,6 @@
       </c>
       <c r="I96">
         <v>100</v>
-      </c>
-      <c r="J96" t="s">
-        <v>500</v>
       </c>
       <c r="K96" t="s">
         <v>504</v>
@@ -5054,7 +5027,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D102">
-        <v>-1.551666666666668</v>
+        <v>-2.216666666666669</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -5067,9 +5040,6 @@
       </c>
       <c r="I102">
         <v>53.58138169095061</v>
-      </c>
-      <c r="J102" t="s">
-        <v>499</v>
       </c>
       <c r="K102" t="s">
         <v>502</v>
@@ -5365,7 +5335,7 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5378,9 +5348,6 @@
       </c>
       <c r="I112">
         <v>100</v>
-      </c>
-      <c r="J112" t="s">
-        <v>500</v>
       </c>
       <c r="K112" t="s">
         <v>504</v>
@@ -5397,7 +5364,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>-1.216666666666666</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -5410,9 +5377,6 @@
       </c>
       <c r="I113">
         <v>34.24380524018687</v>
-      </c>
-      <c r="J113" t="s">
-        <v>500</v>
       </c>
       <c r="K113" t="s">
         <v>502</v>
@@ -5441,7 +5405,7 @@
         <v>18</v>
       </c>
       <c r="H114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>53.43276385074238</v>
@@ -5505,7 +5469,7 @@
         <v>6</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>59.49131447750475</v>
@@ -5711,7 +5675,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D123">
-        <v>1.458333333333334</v>
+        <v>2.083333333333334</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5724,9 +5688,6 @@
       </c>
       <c r="I123">
         <v>40.60923493744569</v>
-      </c>
-      <c r="J123" t="s">
-        <v>499</v>
       </c>
       <c r="K123" t="s">
         <v>502</v>
@@ -5999,7 +5960,7 @@
         <v>-1.316666666666666</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1.683333333333334</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6012,9 +5973,6 @@
       </c>
       <c r="I132">
         <v>55.91230863059315</v>
-      </c>
-      <c r="J132" t="s">
-        <v>500</v>
       </c>
       <c r="K132" t="s">
         <v>502</v>
@@ -6217,7 +6175,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>3.483333333333334</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6230,9 +6188,6 @@
       </c>
       <c r="I139">
         <v>65.16949971780619</v>
-      </c>
-      <c r="J139" t="s">
-        <v>500</v>
       </c>
       <c r="K139" t="s">
         <v>503</v>
@@ -6377,7 +6332,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>6.533333333333333</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6393,9 +6348,6 @@
       </c>
       <c r="I144">
         <v>57.24852218404764</v>
-      </c>
-      <c r="J144" t="s">
-        <v>500</v>
       </c>
       <c r="K144" t="s">
         <v>502</v>
@@ -6444,7 +6396,7 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>6.983333333333333</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -6457,9 +6409,6 @@
       </c>
       <c r="I146">
         <v>58.88769282537598</v>
-      </c>
-      <c r="J146" t="s">
-        <v>500</v>
       </c>
       <c r="K146" t="s">
         <v>502</v>
@@ -6604,7 +6553,7 @@
         <v>-0.2166666666666686</v>
       </c>
       <c r="D151">
-        <v>0.548333333333332</v>
+        <v>0.7833333333333314</v>
       </c>
       <c r="E151">
         <v>0.309368003696636</v>
@@ -6617,9 +6566,6 @@
       </c>
       <c r="I151">
         <v>25.22467764438302</v>
-      </c>
-      <c r="J151" t="s">
-        <v>499</v>
       </c>
       <c r="K151" t="s">
         <v>502</v>
@@ -6668,7 +6614,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>-1.516666666666666</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -6681,9 +6627,6 @@
       </c>
       <c r="I153">
         <v>35.88070749443404</v>
-      </c>
-      <c r="J153" t="s">
-        <v>500</v>
       </c>
       <c r="K153" t="s">
         <v>502</v>
@@ -6761,16 +6704,16 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D156">
-        <v>1.091666666666667</v>
+        <v>6.091666666666667</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -6982,7 +6925,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>0.9833333333333336</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -6995,9 +6938,6 @@
       </c>
       <c r="I163">
         <v>27.26788626447487</v>
-      </c>
-      <c r="J163" t="s">
-        <v>500</v>
       </c>
       <c r="K163" t="s">
         <v>502</v>
@@ -7046,7 +6986,7 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>-2.416666666666667</v>
       </c>
       <c r="E165">
         <v>0.3988317879490879</v>
@@ -7055,13 +6995,10 @@
         <v>0.2</v>
       </c>
       <c r="H165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I165">
         <v>28.57142857142857</v>
-      </c>
-      <c r="J165" t="s">
-        <v>500</v>
       </c>
       <c r="K165" t="s">
         <v>502</v>
@@ -7154,7 +7091,7 @@
         <v>7</v>
       </c>
       <c r="H168">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I168">
         <v>67.48119119478599</v>
@@ -7296,7 +7233,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>5.883333333333335</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7312,9 +7249,6 @@
       </c>
       <c r="I173">
         <v>65.9168517935056</v>
-      </c>
-      <c r="J173" t="s">
-        <v>500</v>
       </c>
       <c r="K173" t="s">
         <v>503</v>
@@ -7724,7 +7658,7 @@
         <v>-1</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>56.03440876129802</v>
@@ -7852,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>53.20864828609061</v>
@@ -7904,7 +7838,7 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>-0.3166666666666673</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -7913,13 +7847,10 @@
         <v>2.3</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>56.41453218212452</v>
-      </c>
-      <c r="J192" t="s">
-        <v>500</v>
       </c>
       <c r="K192" t="s">
         <v>502</v>
@@ -8070,7 +8001,7 @@
         <v>4.9</v>
       </c>
       <c r="H197">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I197">
         <v>50</v>
@@ -8215,7 +8146,7 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D202">
-        <v>5.553333333333332</v>
+        <v>7.933333333333332</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8231,9 +8162,6 @@
       </c>
       <c r="I202">
         <v>62.74567437737857</v>
-      </c>
-      <c r="J202" t="s">
-        <v>499</v>
       </c>
       <c r="K202" t="s">
         <v>503</v>
@@ -8884,7 +8812,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>2.416666666666668</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8897,9 +8825,6 @@
       </c>
       <c r="I223">
         <v>66.93329984548264</v>
-      </c>
-      <c r="J223" t="s">
-        <v>500</v>
       </c>
       <c r="K223" t="s">
         <v>503</v>
@@ -9085,7 +9010,7 @@
         <v>-1</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I229">
         <v>50.38232368126155</v>
@@ -9117,7 +9042,7 @@
         <v>6</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>57.39313773772212</v>
@@ -9201,7 +9126,7 @@
         <v>-1.016666666666666</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>-1.016666666666666</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -9214,9 +9139,6 @@
       </c>
       <c r="I233">
         <v>50</v>
-      </c>
-      <c r="J233" t="s">
-        <v>500</v>
       </c>
       <c r="K233" t="s">
         <v>502</v>
@@ -9297,7 +9219,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D236">
-        <v>5.178833333333333</v>
+        <v>7.398333333333333</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -9310,9 +9232,6 @@
       </c>
       <c r="I236">
         <v>61.53153462561222</v>
-      </c>
-      <c r="J236" t="s">
-        <v>499</v>
       </c>
       <c r="K236" t="s">
         <v>503</v>
@@ -9329,7 +9248,7 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>6.978333333333333</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -9342,9 +9261,6 @@
       </c>
       <c r="I237">
         <v>68.61346782528102</v>
-      </c>
-      <c r="J237" t="s">
-        <v>500</v>
       </c>
       <c r="K237" t="s">
         <v>503</v>
@@ -9425,7 +9341,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>6.483333333333333</v>
       </c>
       <c r="E240">
         <v>0.1888151781810661</v>
@@ -9438,9 +9354,6 @@
       </c>
       <c r="I240">
         <v>60.9719387104256</v>
-      </c>
-      <c r="J240" t="s">
-        <v>500</v>
       </c>
       <c r="K240" t="s">
         <v>503</v>
@@ -9533,7 +9446,7 @@
         <v>7</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I243">
         <v>71.38329894607209</v>
@@ -9629,7 +9542,7 @@
         <v>5</v>
       </c>
       <c r="H246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I246">
         <v>64.14666310365259</v>
@@ -9713,7 +9626,7 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>1.783333333333331</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9726,9 +9639,6 @@
       </c>
       <c r="I249">
         <v>87.71929824561403</v>
-      </c>
-      <c r="J249" t="s">
-        <v>500</v>
       </c>
       <c r="K249" t="s">
         <v>504</v>
@@ -9789,7 +9699,7 @@
         <v>8</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I251">
         <v>66.71209544782018</v>
@@ -9821,7 +9731,7 @@
         <v>3</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252">
         <v>59.94730427391571</v>
@@ -9850,7 +9760,7 @@
         <v>5</v>
       </c>
       <c r="H253">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I253">
         <v>70.81836985595295</v>
@@ -9870,7 +9780,7 @@
         <v>6.783333333333331</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>12.48333333333333</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9886,9 +9796,6 @@
       </c>
       <c r="I254">
         <v>69.06941523259475</v>
-      </c>
-      <c r="J254" t="s">
-        <v>500</v>
       </c>
       <c r="K254" t="s">
         <v>503</v>
@@ -10123,7 +10030,7 @@
         <v>-1.316666666666666</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -10139,9 +10046,6 @@
       </c>
       <c r="I262">
         <v>51.60032996709971</v>
-      </c>
-      <c r="J262" t="s">
-        <v>500</v>
       </c>
       <c r="K262" t="s">
         <v>502</v>
@@ -10158,7 +10062,7 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -10171,9 +10075,6 @@
       </c>
       <c r="I263">
         <v>78.14883618727593</v>
-      </c>
-      <c r="J263" t="s">
-        <v>500</v>
       </c>
       <c r="K263" t="s">
         <v>503</v>
@@ -10359,7 +10260,7 @@
         <v>3</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269">
         <v>49.78191496295069</v>
@@ -10571,7 +10472,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>0.7833333333333314</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -10584,9 +10485,6 @@
       </c>
       <c r="I276">
         <v>59.71056120342082</v>
-      </c>
-      <c r="J276" t="s">
-        <v>500</v>
       </c>
       <c r="K276" t="s">
         <v>502</v>
@@ -10667,7 +10565,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D279">
-        <v>2.473333333333332</v>
+        <v>3.533333333333331</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -10683,9 +10581,6 @@
       </c>
       <c r="I279">
         <v>70.76969277928509</v>
-      </c>
-      <c r="J279" t="s">
-        <v>499</v>
       </c>
       <c r="K279" t="s">
         <v>503</v>
@@ -10734,7 +10629,7 @@
         <v>-4.416666666666668</v>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>-3.566666666666668</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -10747,9 +10642,6 @@
       </c>
       <c r="I281">
         <v>50.89330659428144</v>
-      </c>
-      <c r="J281" t="s">
-        <v>500</v>
       </c>
       <c r="K281" t="s">
         <v>502</v>
@@ -10798,7 +10690,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>4.483333333333333</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -10811,9 +10703,6 @@
       </c>
       <c r="I283">
         <v>60.33304634365533</v>
-      </c>
-      <c r="J283" t="s">
-        <v>500</v>
       </c>
       <c r="K283" t="s">
         <v>503</v>
@@ -10906,7 +10795,7 @@
         <v>2</v>
       </c>
       <c r="H286">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I286">
         <v>39.65821066401048</v>
@@ -11115,7 +11004,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>10.01333333333333</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -11128,9 +11017,6 @@
       </c>
       <c r="I293">
         <v>68.45401187949646</v>
-      </c>
-      <c r="J293" t="s">
-        <v>500</v>
       </c>
       <c r="K293" t="s">
         <v>503</v>
@@ -11147,7 +11033,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D294">
-        <v>0</v>
+        <v>14.47833333333333</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -11163,9 +11049,6 @@
       </c>
       <c r="I294">
         <v>67.85083777370846</v>
-      </c>
-      <c r="J294" t="s">
-        <v>500</v>
       </c>
       <c r="K294" t="s">
         <v>503</v>
@@ -11182,7 +11065,7 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D295">
-        <v>5.168333333333333</v>
+        <v>7.383333333333333</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -11195,9 +11078,6 @@
       </c>
       <c r="I295">
         <v>64.53046112809332</v>
-      </c>
-      <c r="J295" t="s">
-        <v>499</v>
       </c>
       <c r="K295" t="s">
         <v>503</v>
@@ -11342,7 +11222,7 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D300">
-        <v>7.478333333333333</v>
+        <v>10.68333333333333</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -11355,9 +11235,6 @@
       </c>
       <c r="I300">
         <v>60.27935288502209</v>
-      </c>
-      <c r="J300" t="s">
-        <v>499</v>
       </c>
       <c r="K300" t="s">
         <v>503</v>
@@ -11418,7 +11295,7 @@
         <v>-1</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I302">
         <v>54.56530441746095</v>
@@ -11598,7 +11475,7 @@
         <v>-4.716666666666669</v>
       </c>
       <c r="D308">
-        <v>2.718333333333331</v>
+        <v>3.883333333333331</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -11614,9 +11491,6 @@
       </c>
       <c r="I308">
         <v>63.42281615193473</v>
-      </c>
-      <c r="J308" t="s">
-        <v>499</v>
       </c>
       <c r="K308" t="s">
         <v>503</v>
@@ -11665,7 +11539,7 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D310">
-        <v>0</v>
+        <v>-3.916666666666669</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -11678,9 +11552,6 @@
       </c>
       <c r="I310">
         <v>39.46724713882321</v>
-      </c>
-      <c r="J310" t="s">
-        <v>500</v>
       </c>
       <c r="K310" t="s">
         <v>502</v>
@@ -11793,7 +11664,7 @@
         <v>6.783333333333331</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>9.178333333333333</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -11806,9 +11677,6 @@
       </c>
       <c r="I314">
         <v>59.81517415295706</v>
-      </c>
-      <c r="J314" t="s">
-        <v>500</v>
       </c>
       <c r="K314" t="s">
         <v>502</v>
@@ -12113,7 +11981,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D324">
-        <v>0</v>
+        <v>9.233333333333334</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -12129,9 +11997,6 @@
       </c>
       <c r="I324">
         <v>61.15328410299084</v>
-      </c>
-      <c r="J324" t="s">
-        <v>500</v>
       </c>
       <c r="K324" t="s">
         <v>503</v>
@@ -12320,7 +12185,7 @@
         <v>3</v>
       </c>
       <c r="H330">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I330">
         <v>66.17690235359767</v>
@@ -12401,7 +12266,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D333">
-        <v>6.959166666666667</v>
+        <v>9.941666666666668</v>
       </c>
       <c r="E333">
         <v>0.4911683673469388</v>
@@ -12414,9 +12279,6 @@
       </c>
       <c r="I333">
         <v>50.25510204081633</v>
-      </c>
-      <c r="J333" t="s">
-        <v>499</v>
       </c>
       <c r="K333" t="s">
         <v>502</v>
@@ -12477,7 +12339,7 @@
         <v>3</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I335">
         <v>51.20634330300937</v>
@@ -12733,7 +12595,7 @@
         <v>21</v>
       </c>
       <c r="H343">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I343">
         <v>75.38075010771375</v>
@@ -12785,7 +12647,7 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D345">
-        <v>0</v>
+        <v>7.253333333333333</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -12798,9 +12660,6 @@
       </c>
       <c r="I345">
         <v>64.82249424327023</v>
-      </c>
-      <c r="J345" t="s">
-        <v>500</v>
       </c>
       <c r="K345" t="s">
         <v>503</v>
@@ -12817,7 +12676,7 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>10.46833333333333</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -12830,9 +12689,6 @@
       </c>
       <c r="I346">
         <v>82.66223240077693</v>
-      </c>
-      <c r="J346" t="s">
-        <v>500</v>
       </c>
       <c r="K346" t="s">
         <v>504</v>
@@ -12971,7 +12827,7 @@
         <v>-1.016666666666666</v>
       </c>
       <c r="D351">
-        <v>10.06833333333333</v>
+        <v>14.38333333333333</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -12987,9 +12843,6 @@
       </c>
       <c r="I351">
         <v>70.00757256120342</v>
-      </c>
-      <c r="J351" t="s">
-        <v>499</v>
       </c>
       <c r="K351" t="s">
         <v>503</v>
@@ -13018,7 +12871,7 @@
         <v>6</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I352">
         <v>68.77025856911622</v>
@@ -13227,7 +13080,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D359">
-        <v>0</v>
+        <v>7.983333333333334</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -13240,9 +13093,6 @@
       </c>
       <c r="I359">
         <v>67.75458747829811</v>
-      </c>
-      <c r="J359" t="s">
-        <v>500</v>
       </c>
       <c r="K359" t="s">
         <v>503</v>
@@ -13352,7 +13202,7 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D363">
-        <v>0</v>
+        <v>4.149999999999997</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -13365,9 +13215,6 @@
       </c>
       <c r="I363">
         <v>74.25816175569102</v>
-      </c>
-      <c r="J363" t="s">
-        <v>500</v>
       </c>
       <c r="K363" t="s">
         <v>503</v>
@@ -13480,7 +13327,7 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D367">
-        <v>9.893333333333333</v>
+        <v>14.13333333333333</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -13496,9 +13343,6 @@
       </c>
       <c r="I367">
         <v>70.03584976331631</v>
-      </c>
-      <c r="J367" t="s">
-        <v>499</v>
       </c>
       <c r="K367" t="s">
         <v>503</v>
@@ -13547,7 +13391,7 @@
         <v>-4.616666666666667</v>
       </c>
       <c r="D369">
-        <v>0</v>
+        <v>-0.6083333333333336</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -13560,9 +13404,6 @@
       </c>
       <c r="I369">
         <v>22.60380084576448</v>
-      </c>
-      <c r="J369" t="s">
-        <v>500</v>
       </c>
       <c r="K369" t="s">
         <v>502</v>
@@ -14021,7 +13862,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D384">
-        <v>10.63416666666667</v>
+        <v>15.19166666666667</v>
       </c>
       <c r="E384">
         <v>0</v>
@@ -14033,13 +13874,10 @@
         <v>21.2</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I384">
         <v>74.49397243015734</v>
-      </c>
-      <c r="J384" t="s">
-        <v>499</v>
       </c>
       <c r="K384" t="s">
         <v>503</v>
@@ -14283,7 +14121,7 @@
         <v>13.5</v>
       </c>
       <c r="H392">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I392">
         <v>96.42857142857143</v>
@@ -14463,7 +14301,7 @@
         <v>-0.3166666666666664</v>
       </c>
       <c r="D398">
-        <v>0</v>
+        <v>10.48333333333333</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -14479,9 +14317,6 @@
       </c>
       <c r="I398">
         <v>77.51890599155278</v>
-      </c>
-      <c r="J398" t="s">
-        <v>500</v>
       </c>
       <c r="K398" t="s">
         <v>503</v>
@@ -14530,16 +14365,16 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D400">
-        <v>8.666666666666666</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="E400">
         <v>0</v>
       </c>
       <c r="F400">
-        <v>8.174999999999999</v>
+        <v>13.175</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400">
         <v>58.82143178839665</v>
@@ -14591,7 +14426,7 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D402">
-        <v>10.31333333333333</v>
+        <v>14.73333333333333</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -14607,9 +14442,6 @@
       </c>
       <c r="I402">
         <v>85.66996948266123</v>
-      </c>
-      <c r="J402" t="s">
-        <v>499</v>
       </c>
       <c r="K402" t="s">
         <v>504</v>
@@ -14658,7 +14490,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>15.04166666666667</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -14671,9 +14503,6 @@
       </c>
       <c r="I404">
         <v>86.69224267607653</v>
-      </c>
-      <c r="J404" t="s">
-        <v>500</v>
       </c>
       <c r="K404" t="s">
         <v>504</v>
@@ -14786,7 +14615,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D408">
-        <v>8.318333333333333</v>
+        <v>11.88333333333333</v>
       </c>
       <c r="E408">
         <v>0.07781662327487343</v>
@@ -14802,9 +14631,6 @@
       </c>
       <c r="I408">
         <v>71.63984076778466</v>
-      </c>
-      <c r="J408" t="s">
-        <v>499</v>
       </c>
       <c r="K408" t="s">
         <v>503</v>
@@ -14821,7 +14647,7 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>20.44166666666667</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -14834,9 +14660,6 @@
       </c>
       <c r="I409">
         <v>70.25863491452664</v>
-      </c>
-      <c r="J409" t="s">
-        <v>500</v>
       </c>
       <c r="K409" t="s">
         <v>503</v>
@@ -14853,7 +14676,7 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D410">
-        <v>13.88333333333333</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -14869,9 +14692,6 @@
       </c>
       <c r="I410">
         <v>68.74965324870166</v>
-      </c>
-      <c r="J410" t="s">
-        <v>499</v>
       </c>
       <c r="K410" t="s">
         <v>503</v>
@@ -14984,7 +14804,7 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D414">
-        <v>8.773333333333333</v>
+        <v>12.53333333333333</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -14996,13 +14816,10 @@
         <v>32.5</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I414">
         <v>70.00156769592692</v>
-      </c>
-      <c r="J414" t="s">
-        <v>499</v>
       </c>
       <c r="K414" t="s">
         <v>503</v>
@@ -15019,7 +14836,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>8.924999999999999</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -15032,9 +14849,6 @@
       </c>
       <c r="I415">
         <v>73.92170427270156</v>
-      </c>
-      <c r="J415" t="s">
-        <v>500</v>
       </c>
       <c r="K415" t="s">
         <v>503</v>
@@ -15179,7 +14993,7 @@
         <v>6.783333333333331</v>
       </c>
       <c r="D420">
-        <v>0</v>
+        <v>15.15</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -15192,9 +15006,6 @@
       </c>
       <c r="I420">
         <v>66.0338055967139</v>
-      </c>
-      <c r="J420" t="s">
-        <v>500</v>
       </c>
       <c r="K420" t="s">
         <v>503</v>
@@ -15304,7 +15115,7 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D424">
-        <v>6.171666666666666</v>
+        <v>8.816666666666666</v>
       </c>
       <c r="E424">
         <v>0</v>
@@ -15320,9 +15131,6 @@
       </c>
       <c r="I424">
         <v>83.98036980813205</v>
-      </c>
-      <c r="J424" t="s">
-        <v>499</v>
       </c>
       <c r="K424" t="s">
         <v>504</v>
@@ -15339,7 +15147,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="E425">
         <v>1</v>
@@ -15352,9 +15160,6 @@
       </c>
       <c r="I425">
         <v>77.51784923473441</v>
-      </c>
-      <c r="J425" t="s">
-        <v>500</v>
       </c>
       <c r="K425" t="s">
         <v>503</v>
@@ -15403,7 +15208,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D427">
-        <v>0</v>
+        <v>16.33333333333334</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -15416,9 +15221,6 @@
       </c>
       <c r="I427">
         <v>72.31182795698925</v>
-      </c>
-      <c r="J427" t="s">
-        <v>500</v>
       </c>
       <c r="K427" t="s">
         <v>503</v>
@@ -15531,7 +15333,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -15544,9 +15346,6 @@
       </c>
       <c r="I431">
         <v>81.08225541231802</v>
-      </c>
-      <c r="J431" t="s">
-        <v>500</v>
       </c>
       <c r="K431" t="s">
         <v>504</v>
@@ -15691,7 +15490,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>15.78333333333333</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -15704,9 +15503,6 @@
       </c>
       <c r="I436">
         <v>84.3642111120603</v>
-      </c>
-      <c r="J436" t="s">
-        <v>500</v>
       </c>
       <c r="K436" t="s">
         <v>504</v>
@@ -15723,7 +15519,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D437">
-        <v>7.828333333333333</v>
+        <v>11.18333333333333</v>
       </c>
       <c r="E437">
         <v>0</v>
@@ -15736,9 +15532,6 @@
       </c>
       <c r="I437">
         <v>74.42053915856026</v>
-      </c>
-      <c r="J437" t="s">
-        <v>499</v>
       </c>
       <c r="K437" t="s">
         <v>503</v>
@@ -15915,7 +15708,7 @@
         <v>-4.416666666666668</v>
       </c>
       <c r="D443">
-        <v>9.648333333333332</v>
+        <v>13.78333333333333</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -15931,9 +15724,6 @@
       </c>
       <c r="I443">
         <v>72.54114206887142</v>
-      </c>
-      <c r="J443" t="s">
-        <v>499</v>
       </c>
       <c r="K443" t="s">
         <v>503</v>
@@ -15950,7 +15740,7 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D444">
-        <v>12.03416666666667</v>
+        <v>17.19166666666667</v>
       </c>
       <c r="E444">
         <v>0</v>
@@ -15966,9 +15756,6 @@
       </c>
       <c r="I444">
         <v>71.14204483713688</v>
-      </c>
-      <c r="J444" t="s">
-        <v>499</v>
       </c>
       <c r="K444" t="s">
         <v>503</v>
@@ -16369,7 +16156,7 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>24.24166666666667</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -16385,9 +16172,6 @@
       </c>
       <c r="I457">
         <v>74.90475979550561</v>
-      </c>
-      <c r="J457" t="s">
-        <v>500</v>
       </c>
       <c r="K457" t="s">
         <v>503</v>
@@ -17110,7 +16894,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D481">
-        <v>0</v>
+        <v>-4.216666666666669</v>
       </c>
       <c r="E481">
         <v>0</v>
@@ -17123,9 +16907,6 @@
       </c>
       <c r="I481">
         <v>0</v>
-      </c>
-      <c r="J481" t="s">
-        <v>500</v>
       </c>
       <c r="K481" t="s">
         <v>501</v>

--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="505">
   <si>
     <t>Player</t>
   </si>
@@ -1513,10 +1513,10 @@
     <t>DST</t>
   </si>
   <si>
+    <t>Out</t>
+  </si>
+  <si>
     <t>Questionable</t>
-  </si>
-  <si>
-    <t>Out</t>
   </si>
   <si>
     <t>No Confidence</t>
@@ -2493,19 +2493,19 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D20">
-        <v>8.133333333333333</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="E20">
         <v>0.1754183673469389</v>
       </c>
       <c r="F20">
-        <v>10.75</v>
+        <v>3.75</v>
       </c>
       <c r="G20">
         <v>0.1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>53.57142857142856</v>
@@ -2621,13 +2621,13 @@
         <v>-0.2166666666666686</v>
       </c>
       <c r="D24">
-        <v>-0.02166666666666686</v>
+        <v>4.978333333333333</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2804,16 +2804,16 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D30">
-        <v>5.983333333333333</v>
+        <v>0.9833333333333336</v>
       </c>
       <c r="E30">
         <v>0.4911683673469388</v>
       </c>
       <c r="F30">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <v>100</v>
@@ -2981,7 +2981,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D36">
-        <v>1.983333333333334</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2994,6 +2994,9 @@
       </c>
       <c r="I36">
         <v>39.87984824619684</v>
+      </c>
+      <c r="J36" t="s">
+        <v>499</v>
       </c>
       <c r="K36" t="s">
         <v>502</v>
@@ -3144,7 +3147,7 @@
         <v>10.9</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>20.28989356716932</v>
@@ -3507,7 +3510,7 @@
         <v>-4.816666666666666</v>
       </c>
       <c r="D53">
-        <v>-6.516666666666667</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3520,6 +3523,9 @@
       </c>
       <c r="I53">
         <v>100</v>
+      </c>
+      <c r="J53" t="s">
+        <v>499</v>
       </c>
       <c r="K53" t="s">
         <v>504</v>
@@ -3568,13 +3574,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D55">
-        <v>0.09833333333333344</v>
+        <v>5.098333333333334</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3632,7 +3638,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D57">
-        <v>4.033333333333331</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3645,6 +3651,9 @@
       </c>
       <c r="I57">
         <v>39.20669384602557</v>
+      </c>
+      <c r="J57" t="s">
+        <v>499</v>
       </c>
       <c r="K57" t="s">
         <v>502</v>
@@ -3722,7 +3731,7 @@
         <v>-1.316666666666666</v>
       </c>
       <c r="D60">
-        <v>1.268333333333333</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3735,6 +3744,9 @@
       </c>
       <c r="I60">
         <v>59.65161496512077</v>
+      </c>
+      <c r="J60" t="s">
+        <v>499</v>
       </c>
       <c r="K60" t="s">
         <v>502</v>
@@ -4004,7 +4016,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D69">
-        <v>16.68333333333333</v>
+        <v>11.67833333333333</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4017,6 +4029,9 @@
       </c>
       <c r="I69">
         <v>59.51176264442746</v>
+      </c>
+      <c r="J69" t="s">
+        <v>500</v>
       </c>
       <c r="K69" t="s">
         <v>502</v>
@@ -4161,7 +4176,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D74">
-        <v>0.6316666666666668</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4177,6 +4192,9 @@
       </c>
       <c r="I74">
         <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>499</v>
       </c>
       <c r="K74" t="s">
         <v>501</v>
@@ -4248,7 +4266,7 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D77">
-        <v>-1.316666666666668</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0.3171683673469392</v>
@@ -4261,6 +4279,9 @@
       </c>
       <c r="I77">
         <v>94.11764705882352</v>
+      </c>
+      <c r="J77" t="s">
+        <v>499</v>
       </c>
       <c r="K77" t="s">
         <v>504</v>
@@ -4588,13 +4609,13 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D88">
-        <v>1.128333333333333</v>
+        <v>6.128333333333333</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.75</v>
+        <v>5.75</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4716,7 +4737,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D92">
-        <v>3.183333333333334</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4729,6 +4750,9 @@
       </c>
       <c r="I92">
         <v>36.17520834211906</v>
+      </c>
+      <c r="J92" t="s">
+        <v>499</v>
       </c>
       <c r="K92" t="s">
         <v>502</v>
@@ -4841,7 +4865,7 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D96">
-        <v>5.283333333333331</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4854,6 +4878,9 @@
       </c>
       <c r="I96">
         <v>100</v>
+      </c>
+      <c r="J96" t="s">
+        <v>499</v>
       </c>
       <c r="K96" t="s">
         <v>504</v>
@@ -5027,7 +5054,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D102">
-        <v>-2.216666666666669</v>
+        <v>-1.551666666666668</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -5040,6 +5067,9 @@
       </c>
       <c r="I102">
         <v>53.58138169095061</v>
+      </c>
+      <c r="J102" t="s">
+        <v>500</v>
       </c>
       <c r="K102" t="s">
         <v>502</v>
@@ -5335,7 +5365,7 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D112">
-        <v>2.983333333333333</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5344,10 +5374,13 @@
         <v>0.8</v>
       </c>
       <c r="H112">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I112">
         <v>100</v>
+      </c>
+      <c r="J112" t="s">
+        <v>499</v>
       </c>
       <c r="K112" t="s">
         <v>504</v>
@@ -5364,7 +5397,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D113">
-        <v>-1.216666666666666</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -5377,6 +5410,9 @@
       </c>
       <c r="I113">
         <v>34.24380524018687</v>
+      </c>
+      <c r="J113" t="s">
+        <v>499</v>
       </c>
       <c r="K113" t="s">
         <v>502</v>
@@ -5469,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I116">
         <v>59.49131447750475</v>
@@ -5614,7 +5650,7 @@
         <v>-4.416666666666668</v>
       </c>
       <c r="D121">
-        <v>1.958333333333333</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -5627,6 +5663,9 @@
       </c>
       <c r="I121">
         <v>52.13249451415953</v>
+      </c>
+      <c r="J121" t="s">
+        <v>499</v>
       </c>
       <c r="K121" t="s">
         <v>502</v>
@@ -5675,7 +5714,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D123">
-        <v>2.083333333333334</v>
+        <v>1.458333333333334</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5688,6 +5727,9 @@
       </c>
       <c r="I123">
         <v>40.60923493744569</v>
+      </c>
+      <c r="J123" t="s">
+        <v>500</v>
       </c>
       <c r="K123" t="s">
         <v>502</v>
@@ -5960,7 +6002,7 @@
         <v>-1.316666666666666</v>
       </c>
       <c r="D132">
-        <v>1.683333333333334</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5973,6 +6015,9 @@
       </c>
       <c r="I132">
         <v>55.91230863059315</v>
+      </c>
+      <c r="J132" t="s">
+        <v>499</v>
       </c>
       <c r="K132" t="s">
         <v>502</v>
@@ -6175,7 +6220,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D139">
-        <v>3.483333333333334</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6188,6 +6233,9 @@
       </c>
       <c r="I139">
         <v>65.16949971780619</v>
+      </c>
+      <c r="J139" t="s">
+        <v>499</v>
       </c>
       <c r="K139" t="s">
         <v>503</v>
@@ -6332,7 +6380,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D144">
-        <v>6.533333333333333</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6348,6 +6396,9 @@
       </c>
       <c r="I144">
         <v>57.24852218404764</v>
+      </c>
+      <c r="J144" t="s">
+        <v>499</v>
       </c>
       <c r="K144" t="s">
         <v>502</v>
@@ -6364,13 +6415,13 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D145">
-        <v>3.438333333333333</v>
+        <v>8.438333333333334</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="G145">
         <v>6.2</v>
@@ -6396,7 +6447,7 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D146">
-        <v>6.983333333333333</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -6409,6 +6460,9 @@
       </c>
       <c r="I146">
         <v>58.88769282537598</v>
+      </c>
+      <c r="J146" t="s">
+        <v>499</v>
       </c>
       <c r="K146" t="s">
         <v>502</v>
@@ -6457,13 +6511,13 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D148">
-        <v>2.768333333333333</v>
+        <v>7.768333333333334</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2.3</v>
+        <v>7.3</v>
       </c>
       <c r="G148">
         <v>2.2</v>
@@ -6553,7 +6607,7 @@
         <v>-0.2166666666666686</v>
       </c>
       <c r="D151">
-        <v>0.7833333333333314</v>
+        <v>0.548333333333332</v>
       </c>
       <c r="E151">
         <v>0.309368003696636</v>
@@ -6566,6 +6620,9 @@
       </c>
       <c r="I151">
         <v>25.22467764438302</v>
+      </c>
+      <c r="J151" t="s">
+        <v>500</v>
       </c>
       <c r="K151" t="s">
         <v>502</v>
@@ -6614,7 +6671,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D153">
-        <v>-1.516666666666666</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -6627,6 +6684,9 @@
       </c>
       <c r="I153">
         <v>35.88070749443404</v>
+      </c>
+      <c r="J153" t="s">
+        <v>499</v>
       </c>
       <c r="K153" t="s">
         <v>502</v>
@@ -6704,16 +6764,16 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D156">
-        <v>6.091666666666667</v>
+        <v>1.091666666666667</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="F156">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -6925,7 +6985,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D163">
-        <v>0.9833333333333336</v>
+        <v>0</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -6938,6 +6998,9 @@
       </c>
       <c r="I163">
         <v>27.26788626447487</v>
+      </c>
+      <c r="J163" t="s">
+        <v>499</v>
       </c>
       <c r="K163" t="s">
         <v>502</v>
@@ -6986,7 +7049,7 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D165">
-        <v>-2.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>0.3988317879490879</v>
@@ -6995,10 +7058,13 @@
         <v>0.2</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I165">
         <v>28.57142857142857</v>
+      </c>
+      <c r="J165" t="s">
+        <v>499</v>
       </c>
       <c r="K165" t="s">
         <v>502</v>
@@ -7091,7 +7157,7 @@
         <v>7</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I168">
         <v>67.48119119478599</v>
@@ -7233,7 +7299,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D173">
-        <v>5.883333333333335</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7249,6 +7315,9 @@
       </c>
       <c r="I173">
         <v>65.9168517935056</v>
+      </c>
+      <c r="J173" t="s">
+        <v>499</v>
       </c>
       <c r="K173" t="s">
         <v>503</v>
@@ -7361,13 +7430,13 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D177">
-        <v>5.128333333333333</v>
+        <v>10.12833333333333</v>
       </c>
       <c r="E177">
         <v>0</v>
       </c>
       <c r="F177">
-        <v>4.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G177">
         <v>19.1</v>
@@ -7489,13 +7558,13 @@
         <v>-1.016666666666666</v>
       </c>
       <c r="D181">
-        <v>6.198333333333333</v>
+        <v>11.19833333333333</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
       <c r="F181">
-        <v>6.3</v>
+        <v>11.3</v>
       </c>
       <c r="G181">
         <v>10.9</v>
@@ -7658,7 +7727,7 @@
         <v>-1</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>56.03440876129802</v>
@@ -7786,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I190">
         <v>53.20864828609061</v>
@@ -7838,7 +7907,7 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D192">
-        <v>-0.3166666666666673</v>
+        <v>0</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -7847,10 +7916,13 @@
         <v>2.3</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I192">
         <v>56.41453218212452</v>
+      </c>
+      <c r="J192" t="s">
+        <v>499</v>
       </c>
       <c r="K192" t="s">
         <v>502</v>
@@ -8001,7 +8073,7 @@
         <v>4.9</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I197">
         <v>50</v>
@@ -8146,7 +8218,7 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D202">
-        <v>7.933333333333332</v>
+        <v>5.553333333333332</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8162,6 +8234,9 @@
       </c>
       <c r="I202">
         <v>62.74567437737857</v>
+      </c>
+      <c r="J202" t="s">
+        <v>500</v>
       </c>
       <c r="K202" t="s">
         <v>503</v>
@@ -8335,13 +8410,13 @@
         <v>-0.3166666666666664</v>
       </c>
       <c r="D208">
-        <v>5.368333333333334</v>
+        <v>10.36833333333333</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
       <c r="F208">
-        <v>5.4</v>
+        <v>10.4</v>
       </c>
       <c r="G208">
         <v>8</v>
@@ -8748,13 +8823,13 @@
         <v>-4.016666666666666</v>
       </c>
       <c r="D221">
-        <v>5.398333333333333</v>
+        <v>10.39833333333333</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221">
-        <v>5.8</v>
+        <v>10.8</v>
       </c>
       <c r="G221">
         <v>4.7</v>
@@ -8812,7 +8887,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D223">
-        <v>2.416666666666668</v>
+        <v>0</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -8825,6 +8900,9 @@
       </c>
       <c r="I223">
         <v>66.93329984548264</v>
+      </c>
+      <c r="J223" t="s">
+        <v>499</v>
       </c>
       <c r="K223" t="s">
         <v>503</v>
@@ -9010,7 +9088,7 @@
         <v>-1</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229">
         <v>50.38232368126155</v>
@@ -9042,7 +9120,7 @@
         <v>6</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>57.39313773772212</v>
@@ -9126,7 +9204,7 @@
         <v>-1.016666666666666</v>
       </c>
       <c r="D233">
-        <v>-1.016666666666666</v>
+        <v>0</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -9139,6 +9217,9 @@
       </c>
       <c r="I233">
         <v>50</v>
+      </c>
+      <c r="J233" t="s">
+        <v>499</v>
       </c>
       <c r="K233" t="s">
         <v>502</v>
@@ -9155,13 +9236,13 @@
         <v>-4.416666666666668</v>
       </c>
       <c r="D234">
-        <v>4.808333333333334</v>
+        <v>9.808333333333334</v>
       </c>
       <c r="E234">
         <v>0</v>
       </c>
       <c r="F234">
-        <v>5.25</v>
+        <v>10.25</v>
       </c>
       <c r="G234">
         <v>3.4</v>
@@ -9219,13 +9300,13 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D236">
-        <v>7.398333333333333</v>
+        <v>12.39833333333333</v>
       </c>
       <c r="E236">
         <v>0</v>
       </c>
       <c r="F236">
-        <v>7.3</v>
+        <v>12.3</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -9248,7 +9329,7 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D237">
-        <v>6.978333333333333</v>
+        <v>0</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -9261,6 +9342,9 @@
       </c>
       <c r="I237">
         <v>68.61346782528102</v>
+      </c>
+      <c r="J237" t="s">
+        <v>499</v>
       </c>
       <c r="K237" t="s">
         <v>503</v>
@@ -9341,7 +9425,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D240">
-        <v>6.483333333333333</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>0.1888151781810661</v>
@@ -9350,10 +9434,13 @@
         <v>6.3</v>
       </c>
       <c r="H240">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I240">
         <v>60.9719387104256</v>
+      </c>
+      <c r="J240" t="s">
+        <v>499</v>
       </c>
       <c r="K240" t="s">
         <v>503</v>
@@ -9402,13 +9489,13 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D242">
-        <v>7.068333333333334</v>
+        <v>12.06833333333333</v>
       </c>
       <c r="E242">
         <v>0</v>
       </c>
       <c r="F242">
-        <v>7.050000000000001</v>
+        <v>12.05</v>
       </c>
       <c r="G242">
         <v>15.5</v>
@@ -9446,7 +9533,7 @@
         <v>7</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243">
         <v>71.38329894607209</v>
@@ -9542,7 +9629,7 @@
         <v>5</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I246">
         <v>64.14666310365259</v>
@@ -9594,13 +9681,13 @@
         <v>-0.4166666666666679</v>
       </c>
       <c r="D248">
-        <v>4.958333333333333</v>
+        <v>9.958333333333334</v>
       </c>
       <c r="E248">
         <v>0</v>
       </c>
       <c r="F248">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G248">
         <v>8.9</v>
@@ -9626,7 +9713,7 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D249">
-        <v>1.783333333333331</v>
+        <v>0</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -9639,6 +9726,9 @@
       </c>
       <c r="I249">
         <v>87.71929824561403</v>
+      </c>
+      <c r="J249" t="s">
+        <v>499</v>
       </c>
       <c r="K249" t="s">
         <v>504</v>
@@ -9655,13 +9745,13 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D250">
-        <v>7.238333333333332</v>
+        <v>12.23833333333333</v>
       </c>
       <c r="E250">
         <v>0</v>
       </c>
       <c r="F250">
-        <v>6.949999999999999</v>
+        <v>11.95</v>
       </c>
       <c r="G250">
         <v>4.7</v>
@@ -9699,7 +9789,7 @@
         <v>8</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I251">
         <v>66.71209544782018</v>
@@ -9731,7 +9821,7 @@
         <v>3</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252">
         <v>59.94730427391571</v>
@@ -9760,7 +9850,7 @@
         <v>5</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I253">
         <v>70.81836985595295</v>
@@ -9780,7 +9870,7 @@
         <v>6.783333333333331</v>
       </c>
       <c r="D254">
-        <v>12.48333333333333</v>
+        <v>0</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9796,6 +9886,9 @@
       </c>
       <c r="I254">
         <v>69.06941523259475</v>
+      </c>
+      <c r="J254" t="s">
+        <v>499</v>
       </c>
       <c r="K254" t="s">
         <v>503</v>
@@ -10030,7 +10123,7 @@
         <v>-1.316666666666666</v>
       </c>
       <c r="D262">
-        <v>3.483333333333333</v>
+        <v>0</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -10046,6 +10139,9 @@
       </c>
       <c r="I262">
         <v>51.60032996709971</v>
+      </c>
+      <c r="J262" t="s">
+        <v>499</v>
       </c>
       <c r="K262" t="s">
         <v>502</v>
@@ -10062,7 +10158,7 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D263">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -10075,6 +10171,9 @@
       </c>
       <c r="I263">
         <v>78.14883618727593</v>
+      </c>
+      <c r="J263" t="s">
+        <v>499</v>
       </c>
       <c r="K263" t="s">
         <v>503</v>
@@ -10260,7 +10359,7 @@
         <v>3</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269">
         <v>49.78191496295069</v>
@@ -10472,7 +10571,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D276">
-        <v>0.7833333333333314</v>
+        <v>0</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -10485,6 +10584,9 @@
       </c>
       <c r="I276">
         <v>59.71056120342082</v>
+      </c>
+      <c r="J276" t="s">
+        <v>499</v>
       </c>
       <c r="K276" t="s">
         <v>502</v>
@@ -10501,13 +10603,13 @@
         <v>-0.2166666666666686</v>
       </c>
       <c r="D277">
-        <v>7.178333333333334</v>
+        <v>12.17833333333333</v>
       </c>
       <c r="E277">
         <v>0.3575182317445701</v>
       </c>
       <c r="F277">
-        <v>7.2</v>
+        <v>12.2</v>
       </c>
       <c r="G277">
         <v>5.5</v>
@@ -10565,7 +10667,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D279">
-        <v>3.533333333333331</v>
+        <v>2.473333333333332</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -10581,6 +10683,9 @@
       </c>
       <c r="I279">
         <v>70.76969277928509</v>
+      </c>
+      <c r="J279" t="s">
+        <v>500</v>
       </c>
       <c r="K279" t="s">
         <v>503</v>
@@ -10629,7 +10734,7 @@
         <v>-4.416666666666668</v>
       </c>
       <c r="D281">
-        <v>-3.566666666666668</v>
+        <v>0</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -10642,6 +10747,9 @@
       </c>
       <c r="I281">
         <v>50.89330659428144</v>
+      </c>
+      <c r="J281" t="s">
+        <v>499</v>
       </c>
       <c r="K281" t="s">
         <v>502</v>
@@ -10690,7 +10798,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D283">
-        <v>4.483333333333333</v>
+        <v>0</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -10703,6 +10811,9 @@
       </c>
       <c r="I283">
         <v>60.33304634365533</v>
+      </c>
+      <c r="J283" t="s">
+        <v>499</v>
       </c>
       <c r="K283" t="s">
         <v>503</v>
@@ -10795,7 +10906,7 @@
         <v>2</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I286">
         <v>39.65821066401048</v>
@@ -10940,13 +11051,13 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D291">
-        <v>4.878333333333334</v>
+        <v>9.878333333333334</v>
       </c>
       <c r="E291">
         <v>0</v>
       </c>
       <c r="F291">
-        <v>5.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="G291">
         <v>10</v>
@@ -11004,7 +11115,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D293">
-        <v>10.01333333333333</v>
+        <v>0</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -11017,6 +11128,9 @@
       </c>
       <c r="I293">
         <v>68.45401187949646</v>
+      </c>
+      <c r="J293" t="s">
+        <v>499</v>
       </c>
       <c r="K293" t="s">
         <v>503</v>
@@ -11033,7 +11147,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D294">
-        <v>14.47833333333333</v>
+        <v>0</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -11049,6 +11163,9 @@
       </c>
       <c r="I294">
         <v>67.85083777370846</v>
+      </c>
+      <c r="J294" t="s">
+        <v>499</v>
       </c>
       <c r="K294" t="s">
         <v>503</v>
@@ -11065,7 +11182,7 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D295">
-        <v>7.383333333333333</v>
+        <v>5.168333333333333</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -11078,6 +11195,9 @@
       </c>
       <c r="I295">
         <v>64.53046112809332</v>
+      </c>
+      <c r="J295" t="s">
+        <v>500</v>
       </c>
       <c r="K295" t="s">
         <v>503</v>
@@ -11222,7 +11342,7 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D300">
-        <v>10.68333333333333</v>
+        <v>7.478333333333333</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -11235,6 +11355,9 @@
       </c>
       <c r="I300">
         <v>60.27935288502209</v>
+      </c>
+      <c r="J300" t="s">
+        <v>500</v>
       </c>
       <c r="K300" t="s">
         <v>503</v>
@@ -11295,7 +11418,7 @@
         <v>-1</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I302">
         <v>54.56530441746095</v>
@@ -11443,13 +11566,13 @@
         <v>0.08333333333333215</v>
       </c>
       <c r="D307">
-        <v>4.608333333333333</v>
+        <v>9.608333333333333</v>
       </c>
       <c r="E307">
         <v>0</v>
       </c>
       <c r="F307">
-        <v>4.6</v>
+        <v>9.6</v>
       </c>
       <c r="G307">
         <v>1.7</v>
@@ -11475,7 +11598,7 @@
         <v>-4.716666666666669</v>
       </c>
       <c r="D308">
-        <v>3.883333333333331</v>
+        <v>2.718333333333331</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -11491,6 +11614,9 @@
       </c>
       <c r="I308">
         <v>63.42281615193473</v>
+      </c>
+      <c r="J308" t="s">
+        <v>500</v>
       </c>
       <c r="K308" t="s">
         <v>503</v>
@@ -11539,7 +11665,7 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D310">
-        <v>-3.916666666666669</v>
+        <v>0</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -11552,6 +11678,9 @@
       </c>
       <c r="I310">
         <v>39.46724713882321</v>
+      </c>
+      <c r="J310" t="s">
+        <v>499</v>
       </c>
       <c r="K310" t="s">
         <v>502</v>
@@ -11664,7 +11793,7 @@
         <v>6.783333333333331</v>
       </c>
       <c r="D314">
-        <v>9.178333333333333</v>
+        <v>0</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -11677,6 +11806,9 @@
       </c>
       <c r="I314">
         <v>59.81517415295706</v>
+      </c>
+      <c r="J314" t="s">
+        <v>499</v>
       </c>
       <c r="K314" t="s">
         <v>502</v>
@@ -11801,7 +11933,7 @@
         <v>15</v>
       </c>
       <c r="H318">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I318">
         <v>71.80400717452909</v>
@@ -11981,7 +12113,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D324">
-        <v>9.233333333333334</v>
+        <v>0</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -11997,6 +12129,9 @@
       </c>
       <c r="I324">
         <v>61.15328410299084</v>
+      </c>
+      <c r="J324" t="s">
+        <v>499</v>
       </c>
       <c r="K324" t="s">
         <v>503</v>
@@ -12185,7 +12320,7 @@
         <v>3</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I330">
         <v>66.17690235359767</v>
@@ -12339,7 +12474,7 @@
         <v>3</v>
       </c>
       <c r="H335">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335">
         <v>51.20634330300937</v>
@@ -12595,7 +12730,7 @@
         <v>21</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I343">
         <v>75.38075010771375</v>
@@ -12647,7 +12782,7 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D345">
-        <v>7.253333333333333</v>
+        <v>0</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -12660,6 +12795,9 @@
       </c>
       <c r="I345">
         <v>64.82249424327023</v>
+      </c>
+      <c r="J345" t="s">
+        <v>499</v>
       </c>
       <c r="K345" t="s">
         <v>503</v>
@@ -12676,7 +12814,7 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D346">
-        <v>10.46833333333333</v>
+        <v>0</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -12689,6 +12827,9 @@
       </c>
       <c r="I346">
         <v>82.66223240077693</v>
+      </c>
+      <c r="J346" t="s">
+        <v>499</v>
       </c>
       <c r="K346" t="s">
         <v>504</v>
@@ -12810,7 +12951,7 @@
         <v>58.72115470514563</v>
       </c>
       <c r="J350" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K350" t="s">
         <v>502</v>
@@ -12827,7 +12968,7 @@
         <v>-1.016666666666666</v>
       </c>
       <c r="D351">
-        <v>14.38333333333333</v>
+        <v>10.06833333333333</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -12843,6 +12984,9 @@
       </c>
       <c r="I351">
         <v>70.00757256120342</v>
+      </c>
+      <c r="J351" t="s">
+        <v>500</v>
       </c>
       <c r="K351" t="s">
         <v>503</v>
@@ -12871,7 +13015,7 @@
         <v>6</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352">
         <v>68.77025856911622</v>
@@ -13080,7 +13224,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D359">
-        <v>7.983333333333334</v>
+        <v>0</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -13093,6 +13237,9 @@
       </c>
       <c r="I359">
         <v>67.75458747829811</v>
+      </c>
+      <c r="J359" t="s">
+        <v>499</v>
       </c>
       <c r="K359" t="s">
         <v>503</v>
@@ -13202,7 +13349,7 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D363">
-        <v>4.149999999999997</v>
+        <v>0</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -13215,6 +13362,9 @@
       </c>
       <c r="I363">
         <v>74.25816175569102</v>
+      </c>
+      <c r="J363" t="s">
+        <v>499</v>
       </c>
       <c r="K363" t="s">
         <v>503</v>
@@ -13327,7 +13477,7 @@
         <v>2.183333333333334</v>
       </c>
       <c r="D367">
-        <v>14.13333333333333</v>
+        <v>9.893333333333333</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -13343,6 +13493,9 @@
       </c>
       <c r="I367">
         <v>70.03584976331631</v>
+      </c>
+      <c r="J367" t="s">
+        <v>500</v>
       </c>
       <c r="K367" t="s">
         <v>503</v>
@@ -13391,7 +13544,7 @@
         <v>-4.616666666666667</v>
       </c>
       <c r="D369">
-        <v>-0.6083333333333336</v>
+        <v>0</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -13404,6 +13557,9 @@
       </c>
       <c r="I369">
         <v>22.60380084576448</v>
+      </c>
+      <c r="J369" t="s">
+        <v>499</v>
       </c>
       <c r="K369" t="s">
         <v>502</v>
@@ -13813,7 +13969,7 @@
         <v>100</v>
       </c>
       <c r="J382" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K382" t="s">
         <v>504</v>
@@ -13862,7 +14018,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D384">
-        <v>15.19166666666667</v>
+        <v>0</v>
       </c>
       <c r="E384">
         <v>0</v>
@@ -13874,10 +14030,13 @@
         <v>21.2</v>
       </c>
       <c r="H384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I384">
         <v>74.49397243015734</v>
+      </c>
+      <c r="J384" t="s">
+        <v>499</v>
       </c>
       <c r="K384" t="s">
         <v>503</v>
@@ -14121,7 +14280,7 @@
         <v>13.5</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I392">
         <v>96.42857142857143</v>
@@ -14301,7 +14460,7 @@
         <v>-0.3166666666666664</v>
       </c>
       <c r="D398">
-        <v>10.48333333333333</v>
+        <v>0</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -14317,6 +14476,9 @@
       </c>
       <c r="I398">
         <v>77.51890599155278</v>
+      </c>
+      <c r="J398" t="s">
+        <v>499</v>
       </c>
       <c r="K398" t="s">
         <v>503</v>
@@ -14365,16 +14527,16 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D400">
-        <v>13.66666666666667</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="E400">
         <v>0</v>
       </c>
       <c r="F400">
-        <v>13.175</v>
+        <v>8.174999999999999</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400">
         <v>58.82143178839665</v>
@@ -14426,7 +14588,7 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D402">
-        <v>14.73333333333333</v>
+        <v>10.31333333333333</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -14442,6 +14604,9 @@
       </c>
       <c r="I402">
         <v>85.66996948266123</v>
+      </c>
+      <c r="J402" t="s">
+        <v>500</v>
       </c>
       <c r="K402" t="s">
         <v>504</v>
@@ -14615,7 +14780,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D408">
-        <v>11.88333333333333</v>
+        <v>8.318333333333333</v>
       </c>
       <c r="E408">
         <v>0.07781662327487343</v>
@@ -14631,6 +14796,9 @@
       </c>
       <c r="I408">
         <v>71.63984076778466</v>
+      </c>
+      <c r="J408" t="s">
+        <v>500</v>
       </c>
       <c r="K408" t="s">
         <v>503</v>
@@ -14647,7 +14815,7 @@
         <v>4.683333333333334</v>
       </c>
       <c r="D409">
-        <v>20.44166666666667</v>
+        <v>0</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -14660,6 +14828,9 @@
       </c>
       <c r="I409">
         <v>70.25863491452664</v>
+      </c>
+      <c r="J409" t="s">
+        <v>499</v>
       </c>
       <c r="K409" t="s">
         <v>503</v>
@@ -14676,7 +14847,7 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D410">
-        <v>19.83333333333333</v>
+        <v>0</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -14692,6 +14863,9 @@
       </c>
       <c r="I410">
         <v>68.74965324870166</v>
+      </c>
+      <c r="J410" t="s">
+        <v>499</v>
       </c>
       <c r="K410" t="s">
         <v>503</v>
@@ -14804,7 +14978,7 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D414">
-        <v>12.53333333333333</v>
+        <v>0</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -14816,10 +14990,13 @@
         <v>32.5</v>
       </c>
       <c r="H414">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I414">
         <v>70.00156769592692</v>
+      </c>
+      <c r="J414" t="s">
+        <v>499</v>
       </c>
       <c r="K414" t="s">
         <v>503</v>
@@ -14836,7 +15013,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D415">
-        <v>8.924999999999999</v>
+        <v>0</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -14849,6 +15026,9 @@
       </c>
       <c r="I415">
         <v>73.92170427270156</v>
+      </c>
+      <c r="J415" t="s">
+        <v>499</v>
       </c>
       <c r="K415" t="s">
         <v>503</v>
@@ -14993,7 +15173,7 @@
         <v>6.783333333333331</v>
       </c>
       <c r="D420">
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -15006,6 +15186,9 @@
       </c>
       <c r="I420">
         <v>66.0338055967139</v>
+      </c>
+      <c r="J420" t="s">
+        <v>499</v>
       </c>
       <c r="K420" t="s">
         <v>503</v>
@@ -15115,7 +15298,7 @@
         <v>-3.216666666666669</v>
       </c>
       <c r="D424">
-        <v>8.816666666666666</v>
+        <v>6.171666666666666</v>
       </c>
       <c r="E424">
         <v>0</v>
@@ -15131,6 +15314,9 @@
       </c>
       <c r="I424">
         <v>83.98036980813205</v>
+      </c>
+      <c r="J424" t="s">
+        <v>500</v>
       </c>
       <c r="K424" t="s">
         <v>504</v>
@@ -15147,7 +15333,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D425">
-        <v>12.08333333333333</v>
+        <v>0</v>
       </c>
       <c r="E425">
         <v>1</v>
@@ -15160,6 +15346,9 @@
       </c>
       <c r="I425">
         <v>77.51784923473441</v>
+      </c>
+      <c r="J425" t="s">
+        <v>499</v>
       </c>
       <c r="K425" t="s">
         <v>503</v>
@@ -15208,7 +15397,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D427">
-        <v>16.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -15221,6 +15410,9 @@
       </c>
       <c r="I427">
         <v>72.31182795698925</v>
+      </c>
+      <c r="J427" t="s">
+        <v>499</v>
       </c>
       <c r="K427" t="s">
         <v>503</v>
@@ -15269,7 +15461,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D429">
-        <v>12.28333333333333</v>
+        <v>0</v>
       </c>
       <c r="E429">
         <v>0</v>
@@ -15285,6 +15477,9 @@
       </c>
       <c r="I429">
         <v>74.11667823054231</v>
+      </c>
+      <c r="J429" t="s">
+        <v>499</v>
       </c>
       <c r="K429" t="s">
         <v>503</v>
@@ -15333,7 +15528,7 @@
         <v>0.1833333333333336</v>
       </c>
       <c r="D431">
-        <v>11.58333333333333</v>
+        <v>0</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -15346,6 +15541,9 @@
       </c>
       <c r="I431">
         <v>81.08225541231802</v>
+      </c>
+      <c r="J431" t="s">
+        <v>499</v>
       </c>
       <c r="K431" t="s">
         <v>504</v>
@@ -15490,7 +15688,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D436">
-        <v>15.78333333333333</v>
+        <v>0</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -15503,6 +15701,9 @@
       </c>
       <c r="I436">
         <v>84.3642111120603</v>
+      </c>
+      <c r="J436" t="s">
+        <v>499</v>
       </c>
       <c r="K436" t="s">
         <v>504</v>
@@ -16156,7 +16357,7 @@
         <v>3.783333333333331</v>
       </c>
       <c r="D457">
-        <v>24.24166666666667</v>
+        <v>0</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -16172,6 +16373,9 @@
       </c>
       <c r="I457">
         <v>74.90475979550561</v>
+      </c>
+      <c r="J457" t="s">
+        <v>499</v>
       </c>
       <c r="K457" t="s">
         <v>503</v>
@@ -16894,7 +17098,7 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D481">
-        <v>-4.216666666666669</v>
+        <v>0</v>
       </c>
       <c r="E481">
         <v>0</v>
@@ -16907,6 +17111,9 @@
       </c>
       <c r="I481">
         <v>0</v>
+      </c>
+      <c r="J481" t="s">
+        <v>499</v>
       </c>
       <c r="K481" t="s">
         <v>501</v>

--- a/player_median_scores.xlsx
+++ b/player_median_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="505">
   <si>
     <t>Player</t>
   </si>
@@ -1938,19 +1938,19 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D2">
-        <v>0.2833333333333314</v>
+        <v>3.283333333333331</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0.9833333333333343</v>
       </c>
       <c r="D23">
-        <v>0.09833333333333344</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2605,6 +2605,9 @@
       </c>
       <c r="I23">
         <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>499</v>
       </c>
       <c r="K23" t="s">
         <v>501</v>
@@ -2784,7 +2787,7 @@
         <v>3.3</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4016,7 +4019,7 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D69">
-        <v>11.67833333333333</v>
+        <v>16.68333333333333</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4029,9 +4032,6 @@
       </c>
       <c r="I69">
         <v>59.51176264442746</v>
-      </c>
-      <c r="J69" t="s">
-        <v>500</v>
       </c>
       <c r="K69" t="s">
         <v>502</v>
@@ -4112,19 +4112,19 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D72">
-        <v>7.133333333333333</v>
+        <v>14.13333333333333</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>7.25</v>
+        <v>14.25</v>
       </c>
       <c r="G72">
         <v>5.1</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>75.44216880235012</v>
@@ -4452,19 +4452,19 @@
         <v>2.883333333333333</v>
       </c>
       <c r="D83">
-        <v>0.6833333333333329</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="G83">
         <v>0.8</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>57.7974446974578</v>
@@ -5054,7 +5054,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D102">
-        <v>-1.551666666666668</v>
+        <v>-2.216666666666669</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -5067,9 +5067,6 @@
       </c>
       <c r="I102">
         <v>53.58138169095061</v>
-      </c>
-      <c r="J102" t="s">
-        <v>500</v>
       </c>
       <c r="K102" t="s">
         <v>502</v>
@@ -5130,7 +5127,7 @@
         <v>8</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I104">
         <v>93.75</v>
@@ -5505,7 +5502,7 @@
         <v>6</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I116">
         <v>59.49131447750475</v>
@@ -5714,7 +5711,7 @@
         <v>-0.01666666666666572</v>
       </c>
       <c r="D123">
-        <v>1.458333333333334</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5729,7 +5726,7 @@
         <v>40.60923493744569</v>
       </c>
       <c r="J123" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K123" t="s">
         <v>502</v>
@@ -6162,7 +6159,7 @@
         <v>-0.3166666666666664</v>
       </c>
       <c r="D137">
-        <v>-0.3166666666666664</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6175,6 +6172,9 @@
       </c>
       <c r="I137">
         <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>499</v>
       </c>
       <c r="K137" t="s">
         <v>501</v>
@@ -6607,7 +6607,7 @@
         <v>-0.2166666666666686</v>
       </c>
       <c r="D151">
-        <v>0.548333333333332</v>
+        <v>0</v>
       </c>
       <c r="E151">
         <v>0.309368003696636</v>
@@ -6622,7 +6622,7 @@
         <v>25.22467764438302</v>
       </c>
       <c r="J151" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K151" t="s">
         <v>502</v>
@@ -6703,7 +6703,7 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D154">
-        <v>5.991666666666665</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -6716,6 +6716,9 @@
       </c>
       <c r="I154">
         <v>71.79487179487178</v>
+      </c>
+      <c r="J154" t="s">
+        <v>499</v>
       </c>
       <c r="K154" t="s">
         <v>503</v>
@@ -7058,7 +7061,7 @@
         <v>0.2</v>
       </c>
       <c r="H165">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I165">
         <v>28.57142857142857</v>
@@ -7093,7 +7096,7 @@
         <v>8</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I166">
         <v>52.58357734123253</v>
@@ -7526,19 +7529,19 @@
         <v>-1.216666666666669</v>
       </c>
       <c r="D180">
-        <v>2.528333333333333</v>
+        <v>7.528333333333333</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
       <c r="F180">
-        <v>2.65</v>
+        <v>7.65</v>
       </c>
       <c r="G180">
         <v>1.8</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>47.22783506727299</v>
@@ -7727,7 +7730,7 @@
         <v>-1</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>56.03440876129802</v>
@@ -7916,7 +7919,7 @@
         <v>2.3</v>
       </c>
       <c r="H192">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I192">
         <v>56.41453218212452</v>
@@ -8189,16 +8192,16 @@
         <v>3.083333333333332</v>
       </c>
       <c r="D201">
-        <v>4.583333333333332</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>4.5</v>
+        <v>14.5</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>58.7820434493984</v>
@@ -8218,7 +8221,7 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D202">
-        <v>5.553333333333332</v>
+        <v>7.933333333333332</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -8234,9 +8237,6 @@
       </c>
       <c r="I202">
         <v>62.74567437737857</v>
-      </c>
-      <c r="J202" t="s">
-        <v>500</v>
       </c>
       <c r="K202" t="s">
         <v>503</v>
@@ -9268,19 +9268,19 @@
         <v>3.283333333333331</v>
       </c>
       <c r="D235">
-        <v>6.333333333333331</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="E235">
         <v>0</v>
       </c>
       <c r="F235">
-        <v>6.05</v>
+        <v>13.05</v>
       </c>
       <c r="G235">
         <v>21.6</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>29.88017779545142</v>
@@ -9533,7 +9533,7 @@
         <v>7</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I243">
         <v>71.38329894607209</v>
@@ -10667,7 +10667,7 @@
         <v>-4.216666666666669</v>
       </c>
       <c r="D279">
-        <v>2.473333333333332</v>
+        <v>3.533333333333331</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -10683,9 +10683,6 @@
       </c>
       <c r="I279">
         <v>70.76969277928509</v>
-      </c>
-      <c r="J279" t="s">
-        <v>500</v>
       </c>
       <c r="K279" t="s">
         <v>503</v>
@@ -10906,7 +10903,7 @@
         <v>2</v>
       </c>
       <c r="H286">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I286">
         <v>39.65821066401048</v>
@@ -11159,7 +11156,7 @@
         <v>14.6</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I294">
         <v>67.85083777370846</v>
@@ -11182,7 +11179,7 @@
         <v>0.3833333333333329</v>
       </c>
       <c r="D295">
-        <v>5.168333333333333</v>
+        <v>7.383333333333333</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -11195,9 +11192,6 @@
       </c>
       <c r="I295">
         <v>64.53046112809332</v>
-      </c>
-      <c r="J295" t="s">
-        <v>500</v>
       </c>
       <c r="K295" t="s">
         <v>503</v>
@@ -11322,7 +11316,7 @@
         <v>7</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I299">
         <v>65.47505565149524</v>
@@ -11802,7 +11796,7 @@
         <v>8.5</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I314">
         <v>59.81517415295706</v>
@@ -12049,19 +12043,19 @@
         <v>3.083333333333332</v>
       </c>
       <c r="D322">
-        <v>18.38333333333333</v>
+        <v>8.383333333333333</v>
       </c>
       <c r="E322">
         <v>0</v>
       </c>
       <c r="F322">
-        <v>18.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G322">
         <v>12.3</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I322">
         <v>60.88670477847029</v>
@@ -12968,7 +12962,7 @@
         <v>-1.016666666666666</v>
       </c>
       <c r="D351">
-        <v>10.06833333333333</v>
+        <v>14.38333333333333</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -12984,9 +12978,6 @@
       </c>
       <c r="I351">
         <v>70.00757256120342</v>
-      </c>
-      <c r="J351" t="s">
-        <v>500</v>
       </c>
       <c r="K351" t="s">
         <v>503</v>
@@ -13015,7 +13006,7 @@
         <v>6</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>68.77025856911622</v>
@@ -14588,7 +14579,7 @@
         <v>0.7833333333333314</v>
       </c>
       <c r="D402">
-        <v>10.31333333333333</v>
+        <v>14.73333333333333</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -14604,9 +14595,6 @@
       </c>
       <c r="I402">
         <v>85.66996948266123</v>
-      </c>
-      <c r="J402" t="s">
-        <v>500</v>
       </c>
       <c r="K402" t="s">
         <v>504</v>
@@ -14853,13 +14841,13 @@
         <v>0</v>
       </c>
       <c r="F410">
-        <v>19.55</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G410">
         <v>8</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I410">
         <v>68.74965324870166</v>
@@ -15109,7 +15097,7 @@
         <v>-4.416666666666668</v>
       </c>
       <c r="D418">
-        <v>10.28333333333333</v>
+        <v>7.198333333333331</v>
       </c>
       <c r="E418">
         <v>1</v>
@@ -15125,6 +15113,9 @@
       </c>
       <c r="I418">
         <v>75.83245146127094</v>
+      </c>
+      <c r="J418" t="s">
+        <v>500</v>
       </c>
       <c r="K418" t="s">
         <v>503</v>
@@ -15697,7 +15688,7 @@
         <v>15.9</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I436">
         <v>84.3642111120603</v>
@@ -16369,7 +16360,7 @@
         <v>4.5</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I457">
         <v>74.90475979550561</v>
